--- a/app/public/区块链.xlsx
+++ b/app/public/区块链.xlsx
@@ -1,110 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuguodong/didi/develop/fe/node/egg-example-simple/app/public/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
-  </bookViews>
   <sheets>
     <sheet name="发明授权" sheetId="1" r:id="rId1"/>
     <sheet name="发明公布" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
-  <si>
-    <t>专利标题</t>
-  </si>
-  <si>
-    <t>申请公布号</t>
-  </si>
-  <si>
-    <t>申请公布日</t>
-  </si>
-  <si>
-    <t>申请号</t>
-  </si>
-  <si>
-    <t>申请日</t>
-  </si>
-  <si>
-    <t>申请人</t>
-  </si>
-  <si>
-    <t>发明人</t>
-  </si>
-  <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>分类号</t>
-  </si>
-  <si>
-    <t>摘要</t>
-  </si>
-  <si>
-    <t>2018.05.04</t>
-  </si>
-  <si>
-    <t>[发明公布]一种基于区块链的端对端自行车共享系统及方法</t>
-  </si>
-  <si>
-    <t>CN107993359A</t>
-  </si>
-  <si>
-    <t>2017111820898</t>
-  </si>
-  <si>
-    <t>2017.11.23</t>
-  </si>
-  <si>
-    <t>浙江大学</t>
-  </si>
-  <si>
-    <t xml:space="preserve">阿里别克·卡日别可夫;孙羽羿;贺诗波;陈积明
-				</t>
-  </si>
-  <si>
-    <t>310058浙江省杭州市西湖区余杭塘路866号</t>
-  </si>
-  <si>
-    <t>G07F17/00(2006.01)I;
-						G06Q20/40(2012.01)I;G06Q20/38(2012.01)I;G06Q20/22(2012.01)I;H04L29/08(2006.01)I
-						专利代理机构：杭州求是专利事务所有限公司33200代理人：刘静;邱启旺</t>
-  </si>
-  <si>
-    <t>本发明公开了一种基于区块链的端对端自行车共享系统及方法，该系统包括系统管理员、云端服务器、自行车所有方、自行车使用方和区块链网络；区块链网络中含有账户、自行车智能合约和节点；自行车使用方不再需要下载多个不同的应用软件，注册之后将自行车押金缴纳给自行车智能合约，区块链网络不含第三方，用户要退押金时只需向自行车智能合约提出申请，有效避免押金难退现象；支付过程不再依赖于第三方支付软件，有效降低了使用的手续费。交易信息由区块链网络中的节点共同保存，每个节点完全冗余的储存网络中所有交易数据，一旦有节点被篡改数据其他节点将提出异议，整个数据库安全性较高，能够保护自行车使用方及所有方隐私安全。</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -133,15 +47,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -466,129 +375,2764 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="发明授权" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="发明授权"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>专利标题</v>
+      </c>
+      <c r="B1" t="str">
+        <v>授权公告号</v>
+      </c>
+      <c r="C1" t="str">
+        <v>申请公布日</v>
+      </c>
+      <c r="D1" t="str">
+        <v>申请号</v>
+      </c>
+      <c r="E1" t="str">
+        <v>申请日</v>
+      </c>
+      <c r="F1" t="str">
+        <v>专利权人</v>
+      </c>
+      <c r="G1" t="str">
+        <v>发明人</v>
+      </c>
+      <c r="H1" t="str">
+        <v>地址</v>
+      </c>
+      <c r="I1" t="str">
+        <v>分类号</v>
+      </c>
+      <c r="J1" t="str">
+        <v>摘要</v>
+      </c>
+      <c r="K1" t="str">
+        <v>授权公告日</v>
+      </c>
+      <c r="L1" t="str">
+        <v>同一申请的已公布的文献号</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
+      <c r="A2" t="str">
+        <v>[发明授权]区块链系统、区块查找方法和区块链后向同步方法</v>
+      </c>
+      <c r="B2" t="str">
+        <v>CN106844477B</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2017.06.13</v>
+      </c>
+      <c r="D2" t="str">
+        <v>2016112063797</v>
+      </c>
+      <c r="E2" t="str">
+        <v>2016.12.23</v>
+      </c>
+      <c r="F2" t="str">
+        <v>北京众享比特科技有限公司</v>
+      </c>
+      <c r="G2" t="str">
+        <v>陈姝;吴飞鹏;卢小明</v>
+      </c>
+      <c r="H2" t="str">
+        <v>100085北京市海淀区安宁庄东路23号1层132室</v>
+      </c>
+      <c r="I2" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：北京志霖恒远知识产权代理事务所(普通合伙)11435代理人：陈姗姗对比文件：CN 102467458 A,2012.05.23,参见全文.; CN 105701424 A,2016.06.22,参见全文.; CN 106055597 A,2016.10.26,参见全文.; CN 104683099 A,2015.06.03,参见全文.; US 2013/0117302 A1,2013.05.09,参见全文.</v>
+      </c>
+      <c r="J2" t="str">
+        <v>本发明提供一种区块链系统、区块查找方法和区块链后向同步方法，该区块查找方法包括：读取本地节点所存储区块链的最新区块中的多重验证码集合；获取所查找区块的第一序号，计算出所查找区块所对应的索引区块的第二序号；根据所述第二序号在所读取的多重验证码集合中查找对应的第二验证码；获取第二验证码对应的索引区块并验证，从中读取自然验证码集合并查找第一序号对应的第一验证码；获取第一验证码对应的所查找区块并验证。其中，所述索引区块为所查找区块之后第一个序号为N的倍数的区块。本发明通过在区块链中存储系数为N的自然验证码集合和多重验证码集合作为索引，实现在保障安全性的同时进行快速查找和后向同步。</v>
+      </c>
+      <c r="K2" t="str">
+        <v>2018.05.01</v>
+      </c>
+      <c r="L2" t="str">
+        <v>CN106844477A</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
+        <v>[发明授权]IP地理位置的上传方法及访问方法、装置及访问系统</v>
+      </c>
+      <c r="B3" t="str">
+        <v>CN106713495B</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2017.05.24</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2017100518546</v>
+      </c>
+      <c r="E3" t="str">
+        <v>2017.01.20</v>
+      </c>
+      <c r="F3" t="str">
+        <v>北京海泰方圆科技股份有限公司</v>
+      </c>
+      <c r="G3" t="str">
+        <v>蒋红宇;柳增寿;王烨</v>
+      </c>
+      <c r="H3" t="str">
+        <v>100094北京市海淀区东北旺西路8号中关村软件园9号楼国际软件大厦E座一层、二层</v>
+      </c>
+      <c r="I3" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04L29/08(2006.01)I;H04L29/12(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：北京同达信恒知识产权代理有限公司11291代理人：黄志华对比文件：CN 102667509 A,2012.09.12,全文.; CN 104735164 A,2015.06.24,全文.; CN 104735616 A,2015.06.24,全文.; CN 106295401 A,2017.01.04,全文.; US 2016321654 A1,2016.11.03,全文.; CN 106095975 A,2016.11.09,全文.</v>
+      </c>
+      <c r="J3" t="str">
+        <v>本发明提供了IP地理位置的上传方法及访问方法、装置及访问系统，涉及通信技术领域，用以利用区块链中客户端与服务器端共同维护的特性，准确的确定发送访问请求的客户端的地理位置，避免了通过数据库确定的客户端的地理位置不准确，导致的访问请求到达目标服务器跳转的时间长、次数多的问题。包括：接收客户端发送的访问请求；根据从第一区块链中获取的客户端已上传的地理位置的信息，确定客户端所处的地理位置，并确定可提供访问服务的服务器与客户端的地理位置之间的距离；若该距离符合预设门限值，则确定目标服务器，并将访问请求转给目标服务器；其中，第一区块链用于存储P2P网络中每一客户端节点上传的其所处的地理位置的信息。</v>
+      </c>
+      <c r="K3" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="L3" t="str">
+        <v>CN106713495A</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>[发明授权]基于区块链的安全交易方法及系统</v>
+      </c>
+      <c r="B4" t="str">
+        <v>CN106845960B</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2017.06.13</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2017100603360</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2017.01.24</v>
+      </c>
+      <c r="F4" t="str">
+        <v>上海壹账通区块链科技有限公司</v>
+      </c>
+      <c r="G4" t="str" xml:space="preserve">
+        <v xml:space="preserve">陆陈一帆;宦鹏飞;张宇;黄宇翔_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="H4" t="str">
+        <v>200000上海市徐汇区龙腾大道2879号3楼3484室</v>
+      </c>
+      <c r="I4" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F19/00(2018.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						G06Q20/10(2012.01)I;G06Q20/38(2012.01)I;H04L9/00(2006.01)I;H04L9/32(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：深圳市沃德知识产权代理事务所(普通合伙)44347代理人：高杰;于志光对比文件：CN 105931052 A,2016.09.07,; CN 105976232 A,2016.09.28,; US 9397985 B1,2016.07.19,; CN 106055993 A,2016.10.26,; CN 105956923 A,2016.09.21,; CN 105488665 A,2016.04.13,</v>
+      </c>
+      <c r="J4" t="str">
+        <v>本发明涉及一种基于区块链的安全交易方法及系统，基于区块链的安全交易方法包括：监管方将其数字证书及其对应第一公钥写入与需监管的资产种类对应的区块链的智能合约中，以供所有在资产种类下拥有资产账户的机构通过数字证书获取监管方的第一公钥，以生成对资产账户的余额进行同态加密的加法同态秘钥；在监管方查看交易方的新账户的余额时，获取所述新账户对应的公私钥组中的公钥，基于监管方与预定的秘钥交换协议对应的监管私钥及所述公私钥组中的公钥，并按照该秘钥交换协议生成加法同态秘钥，利用生成的加法同态秘钥解密新账户加密后的新账户余额。本发明能有效保障了基于区块链的交易的账户安全性及对账户进行监管，并可提高交易处理的效率。</v>
+      </c>
+      <c r="K4" t="str">
+        <v>2018.03.20</v>
+      </c>
+      <c r="L4" t="str">
+        <v>CN106845960A</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>[发明授权]基于区块链的交易验证方法及系统</v>
+      </c>
+      <c r="B5" t="str">
+        <v>CN106548330B</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2017.03.29</v>
+      </c>
+      <c r="D5" t="str">
+        <v>201610959872X</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2016.10.27</v>
+      </c>
+      <c r="F5" t="str">
+        <v>上海亿账通区块链科技有限公司</v>
+      </c>
+      <c r="G5" t="str">
+        <v>陆陈一帆;黄宇翔;姚晓星</v>
+      </c>
+      <c r="H5" t="str">
+        <v>200000上海市徐汇区龙腾大道2879号3楼3484室</v>
+      </c>
+      <c r="I5" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q20/06(2012.01)I;G06Q20/38(2012.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：深圳市沃德知识产权代理事务所(普通合伙)44347代理人：高杰;于志光</v>
+      </c>
+      <c r="J5" t="str">
+        <v>本发明公开了一种基于区块链的交易验证方法及系统，该方法包括：区块链上节点在处理带有交易类型和交易金额的交易时，通过交易方发送的第一解密参数解密各个交易方的原始余额，对各个原始余额进行计算得到新余额，将新余额通过交易方发来的加密参数加密得到加密新余额，将各加密新余额广播到该区块链各节点上；当该区块链的节点收到广播的各交易方的加密新余额后，启动智能合约进行合数验证；若合数验证均通过，则基于各对应的加密新余额更新；调用外部负数余额验证系统对单个账户余额进行负数余额检验，若负数余额检验均通过，则判定该交易验证通过。本发明既能验证交易是否正常，又能在不占用系统开销的情况下保证区块链上的交易处理速度。</v>
+      </c>
+      <c r="K5" t="str">
+        <v>2018.03.16</v>
+      </c>
+      <c r="L5" t="str">
+        <v>CN106548330A</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>[发明授权]数据同步方法及系统</v>
+      </c>
+      <c r="B6" t="str">
+        <v>CN106649632B</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2017.05.10</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2016111176745</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2016.12.07</v>
+      </c>
+      <c r="F6" t="str">
+        <v>北京众享比特科技有限公司</v>
+      </c>
+      <c r="G6" t="str">
+        <v>陈姝;吴飞鹏;卢小明</v>
+      </c>
+      <c r="H6" t="str">
+        <v>100085北京市海淀区安宁庄东路23号1层132室</v>
+      </c>
+      <c r="I6" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I;G06F21/64(2013.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：北京志霖恒远知识产权代理事务所(普通合伙)11435代理人：陈姗姗</v>
+      </c>
+      <c r="J6" t="str">
+        <v>本发明提供一种数据同步方法及系统，该方法包括：向目标节点请求包括目标数据的账本数据；其中，目标数据对应于一数据单元，包括用于通过校验将各目标数据连接成数据链的数据链校验信息；接收所请求的账本数据并进行校验；根据数据链校验信息将各通过校验的账本数据中的目标数据按序连接成数据链，并依次根据数据链中的各目标数据对数据单元进行数据同步。本发明在通过交易存储在区块链的各账本数据中、对应于同一数据单元(例如数据表)的目标数据中配置用于通过校验将各目标数据连接成数据链的数据链校验信息，实现对获取的各目标数据进行有序验证，同时还对接收的账本数据进行验证，为数据同步提供了多重安全保障。</v>
+      </c>
+      <c r="K6" t="str">
+        <v>2018.03.16</v>
+      </c>
+      <c r="L6" t="str">
+        <v>CN106649632A</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v>[发明授权]日志数据库系统和同步方法</v>
+      </c>
+      <c r="B7" t="str">
+        <v>CN106776894B</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2017.05.31</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2016110786876</v>
+      </c>
+      <c r="E7" t="str">
+        <v>2016.11.29</v>
+      </c>
+      <c r="F7" t="str">
+        <v>北京众享比特科技有限公司</v>
+      </c>
+      <c r="G7" t="str">
+        <v>陈姝;程双全;卢小明</v>
+      </c>
+      <c r="H7" t="str">
+        <v>100085北京市海淀区安宁庄东路23号1层132室</v>
+      </c>
+      <c r="I7" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：北京志霖恒远知识产权代理事务所(普通合伙)11435代理人：陈姗姗</v>
+      </c>
+      <c r="J7" t="str">
+        <v>本发明提供一种日志数据库系统和同步方法，该系统包括同步配置单元、日志获取单元、数据同步单元和数据库执行单元。同步配置单元配置用于获取待同步的数据对象名称以配置同步名称列表。日志获取单元配置用于进行交易，生成交易信息并参与共识，将通过共识的交易信息存入本地区块链。其中，交易信息包括数据库操作日志。数据同步单元配置用于根据同步名称列表在本地区块链中查找对应的数据库操作日志，根据查找到的数据库操作日志确定数据同步操作。数据库执行单元配置用于对预定的数据库执行数据同步操作。本发明将操作日志和数据分离，利用区块链技术在实现分布式存储的同时有效地保障安全性，同时可以配置不同类型数据库，无需改造节点。</v>
+      </c>
+      <c r="K7" t="str">
+        <v>2018.03.16</v>
+      </c>
+      <c r="L7" t="str">
+        <v>CN106776894A</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
+        <v>[发明授权]基于区块链网络的数据库写入方法及系统</v>
+      </c>
+      <c r="B8" t="str">
+        <v>CN106611061B</v>
+      </c>
+      <c r="C8" t="str">
+        <v>2017.05.03</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2016112445452</v>
+      </c>
+      <c r="E8" t="str">
+        <v>2016.12.29</v>
+      </c>
+      <c r="F8" t="str">
+        <v>北京众享比特科技有限公司</v>
+      </c>
+      <c r="G8" t="str">
+        <v>陈姝;程双全;卢小明</v>
+      </c>
+      <c r="H8" t="str">
+        <v>100085北京市海淀区安宁庄东路23号1层132室</v>
+      </c>
+      <c r="I8" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：北京志霖恒远知识产权代理事务所(普通合伙)11435代理人：陈姗姗</v>
+      </c>
+      <c r="J8" t="str">
+        <v>本发明提供一种基于区块链网络的数据库写入方法及系统，该方法包括：接收包括数据库操作的交易信息；根据所述数据库操作创建数据库事务，并将所述数据库事务存入本地数据库；将所述交易信息发送至当前区块链网络中参与共识；接收返回的共识结果信息并判断所述交易信息是否通过共识：是，则在所述本地数据库中提交所述数据库事务；否，则在所述本地数据库中回退所述数据库事务。本发明通过将数据库操作以数据库事务的方式在进行共识前存入数据库，并在完成共识后根据共识结果判断对该数据库事务进行提交或回退，从而实现了在共识过程保障了数据库的读写一致。</v>
+      </c>
+      <c r="K8" t="str">
+        <v>2018.02.23</v>
+      </c>
+      <c r="L8" t="str">
+        <v>CN106611061A</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str">
+        <v>[发明授权]区块链集群处理系统和方法</v>
+      </c>
+      <c r="B9" t="str">
+        <v>CN106685743B</v>
+      </c>
+      <c r="C9" t="str">
+        <v>2017.05.17</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2017101392761</v>
+      </c>
+      <c r="E9" t="str">
+        <v>2017.03.09</v>
+      </c>
+      <c r="F9" t="str">
+        <v>上海亿账通区块链科技有限公司</v>
+      </c>
+      <c r="G9" t="str" xml:space="preserve">
+        <v xml:space="preserve">刘雄文;陆陈一帆;黄宇翔;司思_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="H9" t="str">
+        <v>200232上海市徐汇区龙腾大道2879号3楼3484室</v>
+      </c>
+      <c r="I9" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04L12/24(2006.01)I;H04L29/08(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：广州华进联合专利商标代理有限公司44224代理人：王宁对比文件：CN 104536988 A,2015.04.22,; CN 106452785 A,2017.02.22,; US 9577911 B1,2017.02.21,</v>
+      </c>
+      <c r="J9" t="str">
+        <v>本发明涉及一种区块链集群处理系统和方法，该系统包括：计算集群在同一时刻只有一个计算节点工作，所内存数据库集群在同一时刻只有一个内存数据库工作，磁盘数据库在同一时刻只有一个磁盘数据库工作；当前工作的计算节点计算得到对应的区块链数据，将区块链数据写入内存数据库集群中当前工作的内存数据库，并且将区块链数据写入磁盘数据库集群中当前工作的磁盘数据库；当计算节点发生故障时，切换至计算集群中的其他计算节点继续工作；当内存数据库发生故障时，切换至内存数据库集群中的其他内存数据库继续工作；当磁盘数据库发生故障时，切换至磁盘数据库集群中的其他磁盘数据库继续工作。采用本系统能够有效提高区块链的可用性。</v>
+      </c>
+      <c r="K9" t="str">
+        <v>2018.02.06</v>
+      </c>
+      <c r="L9" t="str">
+        <v>CN106685743A</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str">
+        <v>[发明授权]一种基于区块链的盲可验证加密签名方法</v>
+      </c>
+      <c r="B10" t="str">
+        <v>CN107040383B</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2017.08.11</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2017102699989</v>
+      </c>
+      <c r="E10" t="str">
+        <v>2017.04.24</v>
+      </c>
+      <c r="F10" t="str">
+        <v>中山大学</v>
+      </c>
+      <c r="G10" t="str">
+        <v>田海博;何杰杰;付利青</v>
+      </c>
+      <c r="H10" t="str">
+        <v>510275广东省广州市海珠区新港西路１３５号</v>
+      </c>
+      <c r="I10" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04L9/32(2006.01)I;H04L9/30(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：广州市深研专利事务所44229代理人：刘玉颖对比文件：CN 106504008 A,2017.03.15,; CN 103117860 A,2013.05.22,; CN 106296138 A,2017.01.04,; CN 106375097 A,2017.02.01,; CN 104954390 A,2015.09.30,; CN 106161415 A,2016.11.23,; CN 105893042 A,2016.08.24,; US 2008065889 A1,2008.03.13,; CN 106375097 A,2017.02.01,&lt;br /&gt;谢辉，王健.区块链技术及其应用研究.《信息网络安全》.2010,(第9期),第1.2节.;杜桂颖，黄振杰.高效的基于证书可验证加密签名方法.《计算机应用》.2015,第35卷(第2期),全文.;李艳红，高德智等.盲化的基于无证书的可验证加密签名方案.《计算机应用》.2013,第33卷(第2期),第1-2节.;朱岩，甘国华.区块链关键技术中的安全性研究.《信息安全研究》.2016,第2卷(第12期),全文.</v>
+      </c>
+      <c r="J10" t="str">
+        <v>本发明涉及一种基于区块链的盲可验证加密签名方法，该方法包括了签名者Alice，签名提取者Bob以及区块链验证者三个参与方。其实现步骤包括：Alice和Bob协商待签署消息，根据系统参数生成各自密钥对；Alice和Bob生成签名标签；Alice生成与签名标签相符的盲可验证加密签名；区块链验证者验证盲可验证加密签名的有效性；Bob从盲可验证加密签名中提取出数字签名。本方法可用于构造公开区块链环境中的保护隐私的公平数字签名交换协议。本发明通过对签名者公钥信息的盲化，使得区块链上的节点除了验证签名有效性之外无法获取到真实的数字签名以及签名者的公钥，达到了对签名者的隐私保护。</v>
+      </c>
+      <c r="K10" t="str">
+        <v>2018.01.30</v>
+      </c>
+      <c r="L10" t="str">
+        <v>CN107040383A</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v>[发明授权]一种数字身份标识管理方法及系统</v>
+      </c>
+      <c r="B11" t="str">
+        <v>CN106411901B</v>
+      </c>
+      <c r="C11" t="str">
+        <v>2017.02.15</v>
+      </c>
+      <c r="D11" t="str">
+        <v>2016108789823</v>
+      </c>
+      <c r="E11" t="str">
+        <v>2016.10.08</v>
+      </c>
+      <c r="F11" t="str">
+        <v>北京三未信安科技发展有限公司</v>
+      </c>
+      <c r="G11" t="str" xml:space="preserve">
+        <v xml:space="preserve">范希骏;杨国强;韩学洋;张玉涛_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="H11" t="str">
+        <v>100101北京市朝阳区北苑路170号3号楼22层1单元2602</v>
+      </c>
+      <c r="I11" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04L29/06(2006.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						H04L9/08(2006.01)I;H04L29/08(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：北京轻创知识产权代理有限公司11212代理人：杨立对比文件：CN 105701372 A,2016.06.22,说明书第[0006]-[0027]段.; WO 2016161073 A1,2016.10.06,全文.; US 2015244690 A1,2015.08.27,全文.; CN 103248488 A,2013.08.14,全文.; CN 105959307 A,2016.09.21,全文.</v>
+      </c>
+      <c r="J11" t="str">
+        <v>本发明涉及一种数字身份标识管理方法及系统，涉及信息安全领域。解决了IBC密码技术体系下的密钥托管及密钥更新后标识自证性降低的问题。首先建立区块链应用系统，部署多个节点，每个节点对应一个公开、共享的账本，每个账本中均记录多个区块；然后建立身份标识管理模式，在每个账本中同步记录各用户身份标识ID的生成、注销和更新操作。本发明结合区块链技术，实现无中心化KDC、分布式的用户身份标识ID及密钥分发系统，即用户独立建设私有KDC生成该用户ID及密钥数据，避免了中心化KDC遭受攻击而造成整个应用安全性降低的问题。如对方进行攻击时，需同时攻击半数以上节点，难度极大，安全性大大优于中心化的IBC算法应用方案。</v>
+      </c>
+      <c r="K11" t="str">
+        <v>2018.01.23</v>
+      </c>
+      <c r="L11" t="str">
+        <v>CN106411901A</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v>[发明授权]一种数字身份标识管理方法及系统</v>
+      </c>
+      <c r="B12" t="str">
+        <v>CN106411901B</v>
+      </c>
+      <c r="C12" t="str">
+        <v>2017.02.15</v>
+      </c>
+      <c r="D12" t="str">
+        <v>2016108789823</v>
+      </c>
+      <c r="E12" t="str">
+        <v>2016.10.08</v>
+      </c>
+      <c r="F12" t="str">
+        <v>北京三未信安科技发展有限公司</v>
+      </c>
+      <c r="G12" t="str" xml:space="preserve">
+        <v xml:space="preserve">范希骏;杨国强;韩学洋;张玉涛_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="H12" t="str">
+        <v>100101北京市朝阳区北苑路170号3号楼22层1单元2602</v>
+      </c>
+      <c r="I12" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04L29/06(2006.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						H04L9/08(2006.01)I;H04L29/08(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：北京轻创知识产权代理有限公司11212代理人：杨立对比文件：CN 105701372 A,2016.06.22,说明书第[0006]-[0027]段.; WO 2016161073 A1,2016.10.06,全文.; US 2015244690 A1,2015.08.27,全文.; CN 103248488 A,2013.08.14,全文.; CN 105959307 A,2016.09.21,全文.</v>
+      </c>
+      <c r="J12" t="str">
+        <v>本发明涉及一种数字身份标识管理方法及系统，涉及信息安全领域。解决了IBC密码技术体系下的密钥托管及密钥更新后标识自证性降低的问题。首先建立区块链应用系统，部署多个节点，每个节点对应一个公开、共享的账本，每个账本中均记录多个区块；然后建立身份标识管理模式，在每个账本中同步记录各用户身份标识ID的生成、注销和更新操作。本发明结合区块链技术，实现无中心化KDC、分布式的用户身份标识ID及密钥分发系统，即用户独立建设私有KDC生成该用户ID及密钥数据，避免了中心化KDC遭受攻击而造成整个应用安全性降低的问题。如对方进行攻击时，需同时攻击半数以上节点，难度极大，安全性大大优于中心化的IBC算法应用方案。</v>
+      </c>
+      <c r="K12" t="str">
+        <v>2018.01.23</v>
+      </c>
+      <c r="L12" t="str">
+        <v>CN106411901A</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>[发明授权]一种基于区块链的公平合同签署方法</v>
+      </c>
+      <c r="B13" t="str">
+        <v>CN106504008B</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2017.03.15</v>
+      </c>
+      <c r="D13" t="str">
+        <v>2016109263622</v>
+      </c>
+      <c r="E13" t="str">
+        <v>2016.10.24</v>
+      </c>
+      <c r="F13" t="str">
+        <v>中山大学</v>
+      </c>
+      <c r="G13" t="str">
+        <v>田海博;付利青</v>
+      </c>
+      <c r="H13" t="str">
+        <v>510275广东省广州市新港西路135号</v>
+      </c>
+      <c r="I13" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F21/62(2013.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						G06Q30/00(2012.01)I;G06Q50/18(2012.01)I;H04L9/32(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：广州市深研专利事务所44229代理人：刘玉颖对比文件：CN 106022775 A,2016.10.12,说明书全文.; CN 105809062 A,2016.07.27,说明书全文.; US 2015/0379510 A1,2015.12.31,说明书全文.&lt;br /&gt;N. Asokan; V. Shoup; M. Waidner.Optimistic fair exchange of digital signatures.《IEEE Journal on Selected Areas in Communications》.2000,第18卷(第4期),593页-610页.</v>
+      </c>
+      <c r="J13" t="str">
+        <v>本发明涉及一种基于区块链的公平合同签署方法，该方法涉及Alice和Bob两个用户实体和区块链系统。其步骤包括：1)Alice和Bob分别生成各自的有效合同认可条款PA&lt;sub&gt;A</v>
+      </c>
+      <c r="K13" t="str">
+        <v>2017.12.29</v>
+      </c>
+      <c r="L13" t="str">
+        <v>CN106504008A</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>[发明授权]一种基于区块链的智能合约的众包构建方法</v>
+      </c>
+      <c r="B14" t="str">
+        <v>CN106843774B</v>
+      </c>
+      <c r="C14" t="str">
+        <v>2017.06.13</v>
+      </c>
+      <c r="D14" t="str">
+        <v>2017101043934</v>
+      </c>
+      <c r="E14" t="str">
+        <v>2017.02.24</v>
+      </c>
+      <c r="F14" t="str">
+        <v>合肥工业大学</v>
+      </c>
+      <c r="G14" t="str" xml:space="preserve">
+        <v xml:space="preserve">李磊;刘古刘;吴共庆;吴信东_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="H14" t="str">
+        <v>230009安徽省合肥市包河区屯溪路193号</v>
+      </c>
+      <c r="I14" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F3/06(2006.01)I;G06Q10/10(2012.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：安徽省合肥新安专利代理有限责任公司34101代理人：陆丽莉;何梅生</v>
+      </c>
+      <c r="J14" t="str">
+        <v>本发明公开了一种基于区块链的智能合约的众包构建方法，包括：1、合约甲方对包含任务和规则的智能合约进行签名并发布到区块链的主链上；2、合约乙方根据合约甲方发布的合约任务认领若干所述合约子任务并将认领信息添加在支链上；3、系统检查甲方合约的所有子任务是否都能被乙方完成；4、甲方和乙方联合签名发布智能合约到区块链主链上，合约自动执行。本发明公开透明的监控合约的构建过程，自动监控合约的执行过程；从而能降低众包合约构建及执行过程中存在的风险。</v>
+      </c>
+      <c r="K14" t="str">
+        <v>2017.12.26</v>
+      </c>
+      <c r="L14" t="str">
+        <v>CN106843774A</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v>[发明授权]对多个区块进行适应性确定群组以成为多个多区块单元</v>
+      </c>
+      <c r="B15" t="str">
+        <v>CN1930635B</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v>2004800416810</v>
+      </c>
+      <c r="E15" t="str">
+        <v>2004.12.15</v>
+      </c>
+      <c r="F15" t="str">
+        <v>桑迪士克股份有限公司</v>
+      </c>
+      <c r="G15" t="str" xml:space="preserve">
+        <v xml:space="preserve">卡洛斯·J·冈萨雷斯;艾伦·D·布莱斯;瑟吉·A·戈罗别兹;艾伦·D·贝内特_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="H15" t="str">
+        <v>美国加利福尼亚州</v>
+      </c>
+      <c r="I15" t="str" xml:space="preserve">
+        <v xml:space="preserve">G11C29/00(2006.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						G06F12/02(2006.01)I;G06F3/06(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：北京律盟知识产权代理有限责任公司 11287代理人：刘国伟优先权：10/750,157 20031230 USPCT进入国家阶段日：2006.08.14PCT申请数据：PCT/US2004/042400 20041215PCT公布数据：WO2005/066974 EN 20050721对比文件：CN 1248334 A,2000.03.22,说明书第8-18页、附图1-12.;US 2002/0099904 A1,2002.07.25,说明书第62-68段、图8,14-16.;US 5572466 A,1996.11.05,全文.;同上.;US 6034897 A,2000.03.07,说明书第4栏第13行至第10栏第25行，第13栏第43-65行、图1、2、5.;同上.;US 2003/0202377 A1,2003.10.30,全文.</v>
+      </c>
+      <c r="J15" t="str">
+        <v>本发明揭示一种用于将一非易失性存储器的物理区块链接到复合逻辑结构或“元区块”中的技术。在确定良好物理区块初始链接到元区块中之后，将所述链接的一记录保存在所述非易失性存储器中，当需要时可在所述非易失性存储器中容易地存取所述记录。在一组实施例中，根据一算法确定性地形成所述初始链接，并且可根据所述存储器中任何不良区块的图案来将其优化。当出现额外的不良区块时，通过以良好区块取代链接中的所述不良区块而更新所述链接，所述良好区块优选是在与其所取代的区块相同的存储器子阵列中。</v>
+      </c>
+      <c r="K15" t="str">
+        <v>2012.10.10</v>
+      </c>
+      <c r="L15" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="发明公布" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="发明公布"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>专利标题</v>
+      </c>
+      <c r="B1" t="str">
+        <v>申请公布号</v>
+      </c>
+      <c r="C1" t="str">
+        <v>申请公布日</v>
+      </c>
+      <c r="D1" t="str">
+        <v>申请号</v>
+      </c>
+      <c r="E1" t="str">
+        <v>申请日</v>
+      </c>
+      <c r="F1" t="str">
+        <v>申请人</v>
+      </c>
+      <c r="G1" t="str">
+        <v>发明人</v>
+      </c>
+      <c r="H1" t="str">
+        <v>地址</v>
+      </c>
+      <c r="I1" t="str">
+        <v>分类号</v>
+      </c>
+      <c r="J1" t="str">
+        <v>摘要</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
+      <c r="A2" t="str">
+        <v>[发明公布]基于区块链的电动汽车电池更换系统</v>
+      </c>
+      <c r="B2" t="str">
+        <v>CN108001428A</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D2" t="str">
+        <v>2016109720115</v>
+      </c>
+      <c r="E2" t="str">
+        <v>2016.10.28</v>
+      </c>
+      <c r="F2" t="str">
+        <v>富士通株式会社</v>
+      </c>
+      <c r="G2" t="str">
+        <v>杨振华;皮冰锋;孙俊</v>
+      </c>
+      <c r="H2" t="str">
+        <v>日本神奈川县</v>
+      </c>
+      <c r="I2" t="str" xml:space="preserve">
+        <v xml:space="preserve">B60S5/06(2006.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						G06F17/30(2006.01)I;G06Q10/06(2012.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：北京集佳知识产权代理有限公司11227代理人：陈炜;席兵</v>
+      </c>
+      <c r="J2" t="str">
+        <v>本公开涉及基于区块链的电动汽车电池更换系统和方法。根据本公开的电动汽车电池更换系统包括：获取单元，从电动汽车获取电动汽车处的待更换的第一电池的电池信息，从换电站获取换电站处的用于更换第一电池的第二电池的电池信息，并且将所获取的电池信息输入到区块链的智能合约；评估单元，基于所获取的电池信息利用智能合约评估第一电池和第二电池的价值；更换单元，基于第一电池和第二电池的价值，将第一电池更换为第二电池并且将更新的第一电池和第二电池的电池信息以及与电池更换交易相关的交易信息存储在区块链中；调整单元，根据电池更换交易的交易延迟时间来调整区块链的性能参数。</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
+        <v>[发明公布]一种基于供需信息的区块链网络搜索方法及系统</v>
+      </c>
+      <c r="B3" t="str">
+        <v>CN108009263A</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2017113285065</v>
+      </c>
+      <c r="E3" t="str">
+        <v>2017.12.13</v>
+      </c>
+      <c r="F3" t="str">
+        <v>清华大学</v>
+      </c>
+      <c r="G3" t="str">
+        <v>柴跃廷;黄亚东;于潇</v>
+      </c>
+      <c r="H3" t="str">
+        <v>100000北京市海淀区双清路30号</v>
+      </c>
+      <c r="I3" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：北京高沃律师事务所11569代理人：王戈</v>
+      </c>
+      <c r="J3" t="str">
+        <v>本发明公开一种基于供需信息的区块链网络搜索方法及系统，所述区块链网络搜索方法包括：获取用户的搜索需求信息；对所述用户的搜索需求信息进行识别，确定用户的搜索需求内容；根据所述搜索需求内容，遍历门户区块链网络中的全息化门户系统，获得对应的搜索结果；所述门户区块链网络包括由若干全息化门户系统区块链通过同一个或多个门户系统相关联形成的网络，每个全息化门户系统区块链包括若干具有商务、政务和社交关系的门户系统，且每个全息化门户系统区块链能够提供供应信息和/或需求信息。在搜索过程中，通过逐一搜索全息化门户系统，可减小搜索范围，从而大大降低资源消耗，提高搜索效率以及搜索的精准度。</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>[发明公布]一种大数据智慧信用治理平台架构</v>
+      </c>
+      <c r="B4" t="str">
+        <v>CN108009294A</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2017114339664</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2017.12.26</v>
+      </c>
+      <c r="F4" t="str">
+        <v>中电科大数据研究院有限公司</v>
+      </c>
+      <c r="G4" t="str">
+        <v>刘汪洋;谢真强;牟其林</v>
+      </c>
+      <c r="H4" t="str">
+        <v>550000贵州省贵阳市贵阳国家高新技术产业开发区金阳科技产业园黎阳大厦</v>
+      </c>
+      <c r="I4" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						G06Q30/00(2012.01)I;G06Q30/06(2012.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：贵阳睿腾知识产权代理有限公司52114代理人：谷庆红</v>
+      </c>
+      <c r="J4" t="str">
+        <v>本发明提供了一种大数据智慧信用治理平台架构，包括涉信数据源层、大数据平台层和智慧应用层；所述涉信数据源层包括政府委办局、重点行业、社会企业和征信机构的涉信数据；所述大数据平台层包括数据集成、数据存储、资源器、计算框架、数据分析、数据可视化和管理框架。本发明采用人工智能、区块链技术实现数据的ETL、共享、交换和查询，使其便于扩展，安全性高，让集群在利用率、资源统一管理和数据共享上减少了资源消耗，提高了管理速度，且数据存储更加方便，查询速度更快，降低了延迟，提高了容错率，使得检索更精确，工作效率高，其界面友好，功能齐全，操作模式简单，达到了让用户方便查询的目的。</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>[发明公布]资源转移和资金转移的方法和装置</v>
+      </c>
+      <c r="B5" t="str">
+        <v>CN108009441A</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D5" t="str">
+        <v>2017111833224</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2017.11.23</v>
+      </c>
+      <c r="F5" t="str">
+        <v>阿里巴巴集团控股有限公司</v>
+      </c>
+      <c r="G5" t="str">
+        <v>王虎森</v>
+      </c>
+      <c r="H5" t="str">
+        <v>英属开曼群岛大开曼资本大厦一座四层847号邮箱</v>
+      </c>
+      <c r="I5" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F21/62(2013.01)I;G06Q40/02(2012.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：北京国昊天诚知识产权代理有限公司11315代理人：许志勇</v>
+      </c>
+      <c r="J5" t="str">
+        <v>本申请公开了一种基于区块链的资源转移方法，包括：当满足资源转移条件时，确定待转移的第一资源的第一数额；根据第一资源的第一数额，确定待转移的第二资源的第二数额，第一资源与第二资源的类型不同；资源转出方向区块链发起交易请求，用于向资源转入方转移待转移的第二资源，其中，交易请求中包括对第二资源的第二数额进行加密处理后得到的第一加密数额信息；在区块链对交易请求进行验证后，执行交易请求，将待转移的第二资源转移到资源转入方，并将执行结果写入区块链。从而能够在资源转移过程中能够保护资源转移双方的隐私信息。</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>[发明公布]车辆数据处理方法及服务器</v>
+      </c>
+      <c r="B6" t="str">
+        <v>CN108009646A</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D6" t="str">
+        <v>201711239566X</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2017.11.30</v>
+      </c>
+      <c r="F6" t="str">
+        <v>深圳市轱辘车联数据技术有限公司</v>
+      </c>
+      <c r="G6" t="str" xml:space="preserve">
+        <v xml:space="preserve">刘均;刘新;郭朝晖;兰飞_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="H6" t="str">
+        <v>518000广东省深圳市坂田街道五和大道北元征科技厂区1号厂房4楼</v>
+      </c>
+      <c r="I6" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q10/00(2012.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						G06F17/30(2006.01)I;H04L9/32(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：广州三环专利商标代理有限公司44202代理人：郝传鑫;熊永强</v>
+      </c>
+      <c r="J6" t="str">
+        <v>本发明实施例公开了一种车辆数据处理方法及服务器，其中方法包括：获取车辆维保数据，并根据所述车辆维保数据，生成数据索引；按照预设的共识机制，将所述数据索引登记在区块链中并全网广播；接收数据请求方提交的数据查询请求；判断所述数据查询请求是否合法；若合法，则将与所述数据查询请求对应的车辆维保数据发送至所述数据请求方。本发明实施例通过将车辆维保数据的数据索引登记在区块链中，可以防止所述车辆维保数据被篡改。</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v>[发明公布]一种供应链管理方法</v>
+      </c>
+      <c r="B7" t="str">
+        <v>CN108009778A</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2017114212339</v>
+      </c>
+      <c r="E7" t="str">
+        <v>2017.12.25</v>
+      </c>
+      <c r="F7" t="str">
+        <v>南京思利华信息科技有限公司</v>
+      </c>
+      <c r="G7" t="str" xml:space="preserve">
+        <v xml:space="preserve">魏松杰;李帅;莫冰;林和瑞_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="H7" t="str">
+        <v>211135江苏省南京市江宁区麒麟科技创新园智汇路300号B单元2楼</v>
+      </c>
+      <c r="I7" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q10/08(2012.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						G06Q30/00(2012.01)I;G06Q50/04(2012.01)I;G06K17/00(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：北京慕达星云知识产权代理事务所(特殊普通合伙)11465代理人：姜海荣</v>
+      </c>
+      <c r="J7" t="str">
+        <v>本发明涉及一种供应链管理方法，其主要利用RFID及区块链中的智能合约技术来实现实际供应链管理中涉及的多方环节间的资金与信息流管理，一件商品在供应链环节中其所包含的生产、运输、仓储、销售等信息基于RFID技术完成快速上链操作；以区块链作为底层分布式账本，以其不可篡改、数据完整准确的特性实现商品数据的安全上链存储，消费者可以在发生纠纷或者需要查看商品信息时，方便快速且准确的追溯到商品在供应链当中涉及的所有信息，实现商品各环节数据的可追溯、查证、在多方间的统一和透明。</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
+        <v>[发明公布]一种面向云际计算环境价值交换的跨链通信方法</v>
+      </c>
+      <c r="B8" t="str">
+        <v>CN108009811A</v>
+      </c>
+      <c r="C8" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2017112372564</v>
+      </c>
+      <c r="E8" t="str">
+        <v>2017.11.30</v>
+      </c>
+      <c r="F8" t="str" xml:space="preserve">
+        <v xml:space="preserve">中国人民解放军国防科技大学;上海优刻得信息科技有限公司_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="G8" t="str" xml:space="preserve">
+        <v xml:space="preserve">史佩昌;杨识澜;王怀民;刘惠;岳喜坤;季昕华;邱模炯;刘畅;刘源;司照凯_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="H8" t="str">
+        <v>410073湖南省长沙市开福区砚瓦池正街47号</v>
+      </c>
+      <c r="I8" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q20/08(2012.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						G06Q20/22(2012.01)I;G06Q20/40(2012.01)I;H04L29/08(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：湖南兆弘专利事务所(普通合伙)43008代理人：谭武艺</v>
+      </c>
+      <c r="J8" t="str">
+        <v>本发明公开了一种面向云际计算环境价值交换的跨链通信方法，目的是保证价值交换过程的安全可靠和高效。技术方案是在各区块链上的每个用户节点中安装由跨链通信模块、节点管理模块、验证模块、记账模块组成的跨链通信系统，建立中间链，从中间链上选择路由节点，由路由节点完成链与链之间的价值转移和沟通交流；发送方的跨链通信模块为发送方、接收方、路由节点构造资金池，根据资金转移方案进行资金转移，接收方的验证模块采用智能合约的方式对发送方资金的有效性和可用性进行验证；接收方的记账模块广播交易结果，发送方、接收方、MidChain生成新区块以存储交易数据。采用本发明可保证价值交换过程的安全可靠和高效，实现链与链之间的无缝跨链通信。</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str">
+        <v>[发明公布]基于区块链智能合约的分布式算力资源的调用方法和系统</v>
+      </c>
+      <c r="B9" t="str">
+        <v>CN108009823A</v>
+      </c>
+      <c r="C9" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2017110682176</v>
+      </c>
+      <c r="E9" t="str">
+        <v>2017.11.03</v>
+      </c>
+      <c r="F9" t="str">
+        <v>厦门快商通信息技术有限公司</v>
+      </c>
+      <c r="G9" t="str" xml:space="preserve">
+        <v xml:space="preserve">洪晓捷;肖龙源;刘晓葳;李稀敏;蔡振华;谭玉坤_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="H9" t="str">
+        <v>361007福建省厦门市思明区嘉禾路267号9楼902室B区</v>
+      </c>
+      <c r="I9" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q20/38(2012.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						G06Q10/10(2012.01)I;G06Q10/06(2012.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：厦门果汁知识产权代理事务所(普通合伙)35227代理人：乐珠秀</v>
+      </c>
+      <c r="J9" t="str">
+        <v>本发明公开了一种基于区块链智能合约的分布式算力资源的调用方法和系统，其通过算力需求方创建智能合约，并将其部署到区块链网络中；然后算力需求方将计算需求发送至智能合约，智能合约将所述计算需求分配至两个以上的算力提供方；最后，智能合约接收所述两个以上的算力提供方的计算结果，并对所述计算结果进行一致性验证；因此，本发明的方法不仅能够对分布式算力资源进行统筹利用，而且能够极大的缩短分布式算力提供方的报酬结算周期，提高算力资源利用率和结算效率。</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str">
+        <v>[发明公布]数据共识方法、装置及电子设备</v>
+      </c>
+      <c r="B10" t="str">
+        <v>CN108009824A</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2017112133328</v>
+      </c>
+      <c r="E10" t="str">
+        <v>2017.11.28</v>
+      </c>
+      <c r="F10" t="str">
+        <v>北京博晨技术有限公司</v>
+      </c>
+      <c r="G10" t="str">
+        <v>张健;张博;赵海涛</v>
+      </c>
+      <c r="H10" t="str">
+        <v>100102北京市朝阳区望京东园四区13号楼-4至33层101内B座25层2504室</v>
+      </c>
+      <c r="I10" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q20/38(2012.01)I;G06Q40/04(2012.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：北京中强智尚知识产权代理有限公司11448代理人：黄耀威</v>
+      </c>
+      <c r="J10" t="str">
+        <v>本发明是关于一种数据共识方法、装置及电子设备，属于信息技术领域。所述方法包括：当接收到待共识数据时，将待共识数据写入第一区块链；当待共识数据写入完成后，生成写入回执；将写入回执和待共识数据传输至第二数据共享系统。本发明当接收到待共识数据时，将待共识数据写入第一区块链，并当待共识数据写入完成后，生成写入回执，将写入回执和待共识数据传输至第二数据共享系统，以使第二数据共享系统在接收到写入回执和待共识数据后，写入待共识数据，完成数据共识，由于第一数据共享系统在完成上述数据共识操作后便可以继续执行其他的操作，无需等待第二数据共享系统，因此，缩短了数据共识的时间，简化了数据共识的过程，智能性较好。</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v>[发明公布]一种基于区块链技术的身份管理系统及方法</v>
+      </c>
+      <c r="B11" t="str">
+        <v>CN108009825A</v>
+      </c>
+      <c r="C11" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D11" t="str">
+        <v>2017112283626</v>
+      </c>
+      <c r="E11" t="str">
+        <v>2017.11.29</v>
+      </c>
+      <c r="F11" t="str">
+        <v>江苏安凰领御科技有限公司</v>
+      </c>
+      <c r="G11" t="str">
+        <v>申子熹</v>
+      </c>
+      <c r="H11" t="str">
+        <v>214000江苏省无锡市新吴区震泽路18-3无锡软件园二期射手座A218室</v>
+      </c>
+      <c r="I11" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q20/38(2012.01)I;H04L9/32(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：无锡华源专利商标事务所(普通合伙)32228代理人：聂启新</v>
+      </c>
+      <c r="J11" t="str">
+        <v>本发明公开了一种基于区块链技术的身份管理系统及方法，涉及区块链技术领域，该系统包括：区块链平台、业务平台和用户设备，用户设备连接业务平台，业务平台连接区块链平台中的一个节点；业务平台可以发起身份交易并对身份交易签名，将身份交易的交易数据向区块链平台广播，区块链平台验证身份交易合法后会将身份交易添加到区块链上，由于区块链技术具有去中心化、防篡改以及共享等特点，因此其他的业务平台只需要接入区块链平台中的节点，即可从区块链上读取到与用户有关的所有业务及各个业务内的相关信息，实现了信息共享，同时信息安全性较高。</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v>[发明公布]一种基于区块链技术的身份管理系统及方法</v>
+      </c>
+      <c r="B12" t="str">
+        <v>CN108009825A</v>
+      </c>
+      <c r="C12" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D12" t="str">
+        <v>2017112283626</v>
+      </c>
+      <c r="E12" t="str">
+        <v>2017.11.29</v>
+      </c>
+      <c r="F12" t="str">
+        <v>江苏安凰领御科技有限公司</v>
+      </c>
+      <c r="G12" t="str">
+        <v>申子熹</v>
+      </c>
+      <c r="H12" t="str">
+        <v>214000江苏省无锡市新吴区震泽路18-3无锡软件园二期射手座A218室</v>
+      </c>
+      <c r="I12" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q20/38(2012.01)I;H04L9/32(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：无锡华源专利商标事务所(普通合伙)32228代理人：聂启新</v>
+      </c>
+      <c r="J12" t="str">
+        <v>本发明公开了一种基于区块链技术的身份管理系统及方法，涉及区块链技术领域，该系统包括：区块链平台、业务平台和用户设备，用户设备连接业务平台，业务平台连接区块链平台中的一个节点；业务平台可以发起身份交易并对身份交易签名，将身份交易的交易数据向区块链平台广播，区块链平台验证身份交易合法后会将身份交易添加到区块链上，由于区块链技术具有去中心化、防篡改以及共享等特点，因此其他的业务平台只需要接入区块链平台中的节点，即可从区块链上读取到与用户有关的所有业务及各个业务内的相关信息，实现了信息共享，同时信息安全性较高。</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>[发明公布]基于区块链的产品流通跟踪方法与系统</v>
+      </c>
+      <c r="B13" t="str">
+        <v>CN108009830A</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D13" t="str">
+        <v>2017113371906</v>
+      </c>
+      <c r="E13" t="str">
+        <v>2017.12.14</v>
+      </c>
+      <c r="F13" t="str">
+        <v>上海密尔克卫化工储存有限公司</v>
+      </c>
+      <c r="G13" t="str">
+        <v>李俊</v>
+      </c>
+      <c r="H13" t="str">
+        <v>200120上海市浦东新区老港镇工业园区同发路1088号</v>
+      </c>
+      <c r="I13" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q30/00(2012.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						G06F21/64(2013.01)I;G06F17/30(2006.01)I;H04L9/08(2006.01)I;H04L29/06(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						</v>
+      </c>
+      <c r="J13" t="str">
+        <v>本发明提供一种基于区块链的产品流通跟踪方法，包括：采集产品流通操作环节所产生的数据信息并分级加密打包生成区块；通过经过认证的管理员节点工作量证明校验所述区块的信息是否真实；存储所述校验通过的区块至区块链，同时将密钥存储于产品包装内；通过产品包装内对应密钥信息，查找并解密区块链上产品在不同流通环节的数据信息，从而实现对所有流通环节进行跟踪及追溯的目的。本发明还提供了相应的系统。本发明实施例中提供的基于区块链的产品流通跟踪方法与系统可以对产品整个生产流通实施监控，无论哪个环节出现问题都可以追根溯源，而且该网络系统将产品信息分为三个不同的层次，分级实现监管，保证信息安全，同时信息录入也有严格的校验流程，多个管理节点相互协作但单个管理节点又不会对整个系统产生大的影响，因此该分布式网络跟踪系统在对产品监控方面实用性很强，适合大范围推广。</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>[发明公布]一种基于区块链技术的汽车保险信息系统</v>
+      </c>
+      <c r="B14" t="str">
+        <v>CN108009834A</v>
+      </c>
+      <c r="C14" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D14" t="str">
+        <v>2017114384373</v>
+      </c>
+      <c r="E14" t="str">
+        <v>2017.12.27</v>
+      </c>
+      <c r="F14" t="str">
+        <v>上海唯链信息科技有限公司</v>
+      </c>
+      <c r="G14" t="str">
+        <v>陆扬</v>
+      </c>
+      <c r="H14" t="str">
+        <v>200050上海市长宁区镇宁路465弄161号3号楼229室</v>
+      </c>
+      <c r="I14" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q30/00(2012.01)I;G06Q40/08(2012.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="J14" t="str">
+        <v>本发明涉及一种基于区块链技术的汽车保险信息系统，包括报案模块、赔付模块和查询模块；参与者包括车主节点、保险公司节点和查询节点。汽车保险信息系统，将汽车理赔信息以区块的形式加入到分布式账本中，保证数据的真实不可篡改；对报案时间进行自动控制，采取不同的处理方案；将保险公司资产和理赔流程写入智能合约，实现自动理赔，不仅可以缩短理赔时间，还使得理赔流程公开化，维护了公众利益；设计了三维空间的追溯链，可以追溯人、车和保险公司三个维度的信息。</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v>[发明公布]一种信息处理方法及其装置</v>
+      </c>
+      <c r="B15" t="str">
+        <v>CN108009878A</v>
+      </c>
+      <c r="C15" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D15" t="str">
+        <v>2017112002035</v>
+      </c>
+      <c r="E15" t="str">
+        <v>2017.11.24</v>
+      </c>
+      <c r="F15" t="str">
+        <v>深圳市轱辘车联数据技术有限公司</v>
+      </c>
+      <c r="G15" t="str" xml:space="preserve">
+        <v xml:space="preserve">刘均;刘新;兰飞;周军_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="H15" t="str">
+        <v>518000广东省深圳市坂田街道五和大道北元征科技厂区1号厂房4楼</v>
+      </c>
+      <c r="I15" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q30/06(2012.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						G06Q40/04(2012.01)I;G07C9/00(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：广州三环专利商标代理有限公司44202代理人：郝传鑫;熊永强</v>
+      </c>
+      <c r="J15" t="str">
+        <v>本发明实施例公开一种信息处理方法及其装置，其中方法包括如下步骤：接收用户终端对处于锁定状态的目标设备的启用请求，所述启用请求包括所述用户终端的用户标识和所述目标设备的设备标识；从区块链获取所述设备标识对应的智能合约，以及获取所述用户标识对应的用户信息，所述智能合约包括所述目标设备的启用条件；若所述用户信息满足所述目标设备的启用条件，则控制解除所述目标设备的锁定状态。实施本发明实施例，可以实现点对点的物权转移，可以提高物权转移的灵活性和可靠性。</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>[发明公布]区块链共识算法交易系统的记账方法及电子设备</v>
+      </c>
+      <c r="B16" t="str">
+        <v>CN108009918A</v>
+      </c>
+      <c r="C16" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D16" t="str">
+        <v>2017111828635</v>
+      </c>
+      <c r="E16" t="str">
+        <v>2017.11.23</v>
+      </c>
+      <c r="F16" t="str">
+        <v>深圳捷汇科技有限公司</v>
+      </c>
+      <c r="G16" t="str" xml:space="preserve">
+        <v xml:space="preserve">王为民;张洪宁;林家存;罗宾;M·章;董智勇_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="H16" t="str">
+        <v>518031广东省深圳市福田区华强北街道华强北路华强广场裙楼7楼A区10号房</v>
+      </c>
+      <c r="I16" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q40/04(2012.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						G06Q40/00(2012.01)I;H04L9/06(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：北京邦信阳专利商标代理有限公司11012代理人：金玺;张伟杰</v>
+      </c>
+      <c r="J16" t="str">
+        <v>本发明公开一种区块链共识算法交易系统的记账方法及电子设备，方法包括：响应于交易系统在选举发起时间发起的选举，在所述选举发起时间开始进行预设随机计算，所述随机计算对选举发起时间所选取的随机值进行计算，以得到满足预设条件的计算结果；经过预设时间后，提交对所述预设随机计算的计算结果，选择计算结果最接近所述预设条件的前N个节点作为随机记账员；所有交易由所述随机记账员进行签名确认。本发明通过随机计算的方式来克服伪随机数的问题，使得所选举的记账人为真实随机，从而避免假冒记账人的问题，从而使得交易时的确认时间可以缩短，在保证交易真实可靠的同时，能够提高交易效率。</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
+        <v>[发明公布]区块链技术的创新促进及优化方法</v>
+      </c>
+      <c r="B17" t="str">
+        <v>CN108009922A</v>
+      </c>
+      <c r="C17" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D17" t="str">
+        <v>2017114680023</v>
+      </c>
+      <c r="E17" t="str">
+        <v>2017.12.19</v>
+      </c>
+      <c r="F17" t="str">
+        <v>路亚鹏</v>
+      </c>
+      <c r="G17" t="str">
+        <v>路亚鹏</v>
+      </c>
+      <c r="H17" t="str">
+        <v>053000河北省衡水市武强县武强镇西中旺一队121号</v>
+      </c>
+      <c r="I17" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q40/04(2012.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="J17" t="str">
+        <v>本发明公开了一种区块链技术的创新促进及优化方法，涉及区块链技术领域，该区块链技术的创新促进及优化方法为区块链的使用指明了发展方向，改变了现有的混乱环境，为中国能及时跟上全球区块链使用的潮流和加强监管提供了可能。该区块链技术的创新促进及优化方法为一种区块链技术创新管理平台，是集合交易所、银行、孵化器、监管等各种功能为一体的新事物。它将改变现有的虚拟币的混乱状态，帮助中国拥抱区块链技术，帮助中国人民融入世界的变革中，乃至全世界都使用一个平台，全世界都使用一种虚拟币。</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>[发明公布]一种基于全球能源区块链的分布式能源调度交易方法</v>
+      </c>
+      <c r="B18" t="str">
+        <v>CN108011370A</v>
+      </c>
+      <c r="C18" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D18" t="str">
+        <v>201711447236X</v>
+      </c>
+      <c r="E18" t="str">
+        <v>2017.12.27</v>
+      </c>
+      <c r="F18" t="str">
+        <v>华北电力大学（保定）</v>
+      </c>
+      <c r="G18" t="str">
+        <v>周国亮;王桂兰</v>
+      </c>
+      <c r="H18" t="str">
+        <v>071003河北省保定市莲池区永华北大街619号</v>
+      </c>
+      <c r="I18" t="str" xml:space="preserve">
+        <v xml:space="preserve">H02J3/00(2006.01)I;H04L29/06(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：北京国坤专利代理事务所(普通合伙)11491代理人：赵红霞</v>
+      </c>
+      <c r="J18" t="str">
+        <v>本发明属于区块链技术领域，公开了一种基于全球能源区块链的分布式能源调度交易方法，通过构建基于全球能源区块链的全球能源互联网系统，全球能源区块链将发挥分布式账簿的作用。利用全球能源区块链在海量的智能设备之间建立了低成本的相互直接沟通的渠道；同时又通过去中心化的共识机制提高了全球能源互联网系统的安全性和私密性，利用可靠的数学加密算法保护用户的隐私；通过分布式决策，各个组织机构共同参与，提升认可度。最终实现全球能源互联网系统的自我管理和维护，将全球能源互联网系统转变为一个去中心化、自组织、自调节的系统，实现无需中介信任的点对点价值传输、安全的分布式数据共享，构造一个全球能源互联网分布式平台。</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>[发明公布]一种基于区块链的数据交易方法</v>
+      </c>
+      <c r="B19" t="str">
+        <v>CN108011709A</v>
+      </c>
+      <c r="C19" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D19" t="str">
+        <v>2017109815514</v>
+      </c>
+      <c r="E19" t="str">
+        <v>2017.10.20</v>
+      </c>
+      <c r="F19" t="str">
+        <v>北京量子保科技有限公司</v>
+      </c>
+      <c r="G19" t="str">
+        <v>王柏;汤鹏</v>
+      </c>
+      <c r="H19" t="str">
+        <v>100080北京市海淀区中关村东路66号1号楼2层商业5-047</v>
+      </c>
+      <c r="I19" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04L9/06(2006.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						H04L9/08(2006.01)I;H04L9/32(2006.01)I;H04L29/06(2006.01)I;G06Q20/40(2012.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：杭州华进联浙知识产权代理有限公司33250代理人：张勇本国优先权：2016112335556 2016.12.27 CN</v>
+      </c>
+      <c r="J19" t="str">
+        <v>本发明提出了一种基于区块链的数据交易方法,其特征在于,该方法包括如下步骤:参与数据交易的数据提供方和数据消费方构建一个区块链；数据提供方为其拥有的数据分别绑定一张或多张权益证；数据提供方以向数据消费方转让权益证的方式生成数据交易；该交易在该联盟区块链中广播，验证合法性后，记入指定区块；权益证的持有者凭借该证获取相应的数据。</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>[发明公布]用于模拟和测试分布式网络的区块链的方法和系统</v>
+      </c>
+      <c r="B20" t="str">
+        <v>CN108011741A</v>
+      </c>
+      <c r="C20" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D20" t="str">
+        <v>2016109714580</v>
+      </c>
+      <c r="E20" t="str">
+        <v>2016.10.28</v>
+      </c>
+      <c r="F20" t="str">
+        <v>富士通株式会社</v>
+      </c>
+      <c r="G20" t="str">
+        <v>杨振华;皮冰锋;孙俊</v>
+      </c>
+      <c r="H20" t="str">
+        <v>日本神奈川县</v>
+      </c>
+      <c r="I20" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04L12/24(2006.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						H04L12/26(2006.01)I;H04L29/08(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：北京集佳知识产权代理有限公司11227代理人：王萍;李春晖</v>
+      </c>
+      <c r="J20" t="str">
+        <v>本公开提出了用于模拟和测试分布式网络的区块链的方法和系统。根据本公开的用于模拟和测试分布式网络的区块链的方法包括：第一步骤，确定分布式网络中的每个节点是否是矿工节点；第二步骤，确定分布式网络中的每个节点是否是交易节点；第三步骤，基于第一步骤和第二步骤的确定结果以及分布式网络中的每个节点的参数，生成用于描述区块链的性能的指标。</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>[发明公布]一种基于区块链的云取证过程记录方法及系统</v>
+      </c>
+      <c r="B21" t="str">
+        <v>CN108011945A</v>
+      </c>
+      <c r="C21" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D21" t="str">
+        <v>2017112400954</v>
+      </c>
+      <c r="E21" t="str">
+        <v>2017.11.30</v>
+      </c>
+      <c r="F21" t="str">
+        <v>公安部第三研究所</v>
+      </c>
+      <c r="G21" t="str" xml:space="preserve">
+        <v xml:space="preserve">吴松洋;杜琳;张勇;张旭;郭波_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="H21" t="str">
+        <v>200031上海市徐汇区岳阳路76号</v>
+      </c>
+      <c r="I21" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04L29/08(2006.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						H04L29/06(2006.01)I;H04L9/32(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：上海天翔知识产权代理有限公司31224代理人：刘常宝</v>
+      </c>
+      <c r="J21" t="str">
+        <v>本发明公开了一种基于区块链的云取证过程记录方法及系统，本方案采用区块链来“锚钉”过程记录数据，实现对数据存在的强有力证明，实现防篡改。本发明提供的方案能够有效实现在云计算数据取证中防止取证数据来源的篡改，同时进行隐私保护，达到事后(一定时间段后)防篡改和隐私保护的目标，有效解决现有技术所存在的问题。</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
+        <v>[发明公布]区块链系统及其权限管理方法</v>
+      </c>
+      <c r="B22" t="str">
+        <v>CN108012582A</v>
+      </c>
+      <c r="C22" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D22" t="str">
+        <v>2017800024648</v>
+      </c>
+      <c r="E22" t="str">
+        <v>2017.08.18</v>
+      </c>
+      <c r="F22" t="str">
+        <v>达闼科技成都有限公司</v>
+      </c>
+      <c r="G22" t="str">
+        <v>张跃洋;谢辉</v>
+      </c>
+      <c r="H22" t="str">
+        <v>610094四川省成都市高新区府城大道西段399号5栋1单元7层3号</v>
+      </c>
+      <c r="I22" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04L29/06(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：北京英创嘉友知识产权代理事务所(普通合伙)11447代理人：魏嘉熹;南毅宁PCT进入国家阶段日：2018.01.18PCT申请数据：PCT/CN2017/098051 2017.08.18</v>
+      </c>
+      <c r="J22" t="str">
+        <v>本公开涉及一种区块链系统及其权限管理方法，所述区块链系统包括多个节点组，并且，所述区块链的区块中存储有每一节点组的组账号信息，所述组账号信息包括所述节点组的权限集，所述节点组中的每一节点拥有所述节点组的权限集中的所有权限；并且，每一节点组中的节点的权限由所述节点组的父组中的管理节点控制，其中，所述节点组的父组是指创建所述节点组的上一级节点组；并且，每一节点组的权限集中的权限多于所述节点组的孩子组对应的权限集，其中，所述节点组的孩子组是指所述节点组创建的下一级节点组；并且，每一节点的成员账号信息存储于区块链的区块中，所述成员账号信息包括所述节点的权限。</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>[发明公布]区块链事务区块处理方法、电子装置及可读存储介质</v>
+      </c>
+      <c r="B23" t="str">
+        <v>CN107992356A</v>
+      </c>
+      <c r="C23" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D23" t="str">
+        <v>2017113234608</v>
+      </c>
+      <c r="E23" t="str">
+        <v>2017.12.13</v>
+      </c>
+      <c r="F23" t="str">
+        <v>上海壹账通金融科技有限公司</v>
+      </c>
+      <c r="G23" t="str" xml:space="preserve">
+        <v xml:space="preserve">陆陈一帆;褚镇飞;冯承勇;张松松_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="H23" t="str">
+        <v>200030上海市徐汇区凯滨路166号9层、10层</v>
+      </c>
+      <c r="I23" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F9/46(2006.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						G06F17/30(2006.01)I;G06Q40/04(2012.01)I;H04L29/08(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：深圳市沃德知识产权代理事务所(普通合伙)44347代理人：高杰;于志光</v>
+      </c>
+      <c r="J23" t="str">
+        <v>本发明涉及一种区块链事务区块处理方法、电子装置及可读存储介质，该方法包括：区块链的数据节点通过预设请求机制向所述区块链的共识节点发起事务接收请求，将所述共识节点中排序好的事务接收到所述数据节点本地；其中，所述共识节点中预先收集所有的事务并排序，将排序好的事务缓存；每个所述数据节点根据预设规则将接收到本地的事务打包成一个或多个事务区块，并根据事务区块中对应的事务的排序，按排序顺序逐个选择事务区块并执行选择的事务区块中的事务。本发明降低系统的响应时间，提高区块链事务区块的执行效率。</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>[发明公布]一种数据区块的存储方法、读取方法、其装置及区块链</v>
+      </c>
+      <c r="B24" t="str">
+        <v>CN107992492A</v>
+      </c>
+      <c r="C24" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D24" t="str">
+        <v>2016109503058</v>
+      </c>
+      <c r="E24" t="str">
+        <v>2016.10.26</v>
+      </c>
+      <c r="F24" t="str" xml:space="preserve">
+        <v xml:space="preserve">中国移动通信有限公司研究院;中国移动通信集团公司_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="G24" t="str">
+        <v>万沛超</v>
+      </c>
+      <c r="H24" t="str">
+        <v>100053北京市宣武区西便门内大街53A</v>
+      </c>
+      <c r="I24" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：北京同达信恒知识产权代理有限公司11291代理人：朱琳爱义</v>
+      </c>
+      <c r="J24" t="str">
+        <v>本发明公开了一种数据区块的存储方法、读取方法、其装置及区块链，该存储方法包括在区块链中写入新数据区块前，对新数据区块的交易记录结构中的各行交易记录数据进行转换为按列结构存储的处理；在按列结构存储后的新数据区块中创建列结构存储识别信息；将具有列结构存储识别信息的新数据区块存储到区块链中。由于各交易记录行数据按列式结构进行存储，且创建了列结构存储识别信息，因此，在查询交易记录数据时，只需根据识别信息查询对应列的交易记录数据，无需查询全部交易记录数据，从而大量减少了系统IO操作，进而可以支持大容量、高并发的查询要求，有利于数据的高效处理。此外，通过扩展列式存储结构，可应对未来交易记录细节信息的变化。</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>[发明公布]一种基于区块链多链技术融合的智能电影产业服务系统</v>
+      </c>
+      <c r="B25" t="str">
+        <v>CN107992621A</v>
+      </c>
+      <c r="C25" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D25" t="str">
+        <v>2017114031992</v>
+      </c>
+      <c r="E25" t="str">
+        <v>2017.12.22</v>
+      </c>
+      <c r="F25" t="str">
+        <v>杭州云象网络技术有限公司</v>
+      </c>
+      <c r="G25" t="str" xml:space="preserve">
+        <v xml:space="preserve">黄步添;邓旭;钱诚;王备;王从礼;王云霄_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="H25" t="str">
+        <v>310012浙江省杭州市余杭区仓前街道海创科技中心2幢301室</v>
+      </c>
+      <c r="I25" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						G06Q30/00(2012.01)I;G06Q30/02(2012.01)I;G06Q30/06(2012.01)I;G06Q40/06(2012.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：杭州天勤知识产权代理有限公司33224代理人：王琛</v>
+      </c>
+      <c r="J25" t="str">
+        <v>本发明公开了一种基于区块链多链技术融合的智能电影产业服务系统，为区块链在广为应用的金融资产交易结算和政府信用领域之外的文化娱乐产业的发展提供一定的技术支持。该系统涉及了多业务的电影产业，也是在目前无电影产业区块链研究和电影产业市场痛点凸显的背景下，结合区块链相关的技术进展设计而成。在链的交叉上，主要包括若干联盟链和公有链，联盟链的使用使得电影产业公司内部数据适合行业竞争与信息盈利的要求，需要一定的隐私保护和异步处理；而对于一些弥补原有大数据引擎的社会信息，公有链相对更加成熟。</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>[发明公布]一种发电侧电力辅助服务交易系统</v>
+      </c>
+      <c r="B26" t="str">
+        <v>CN107993009A</v>
+      </c>
+      <c r="C26" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D26" t="str">
+        <v>2017112497911</v>
+      </c>
+      <c r="E26" t="str">
+        <v>2017.12.01</v>
+      </c>
+      <c r="F26" t="str">
+        <v>赫普科技发展（北京）有限公司</v>
+      </c>
+      <c r="G26" t="str" xml:space="preserve">
+        <v xml:space="preserve">杨豫森;崔华;徐波;谭智;陈辉_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="H26" t="str">
+        <v>100176北京市经济技术开发区科创十三街18号院12号楼</v>
+      </c>
+      <c r="I26" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q10/06(2012.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						G06Q30/06(2012.01)I;G06Q40/04(2012.01)I;G06Q50/06(2012.01)I;H04L29/08(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：北京金信知识产权代理有限公司11225代理人：黄威;喻嵘</v>
+      </c>
+      <c r="J26" t="str">
+        <v>本发明涉及一种发电侧电力辅助服务交易系统，其包括区块链交易平台、区块链节点模块和执行单元，其中，执行单元分布式地布置并且与区块链交易平台连接，区块链交易平台配置地利用区块链技术实现在一定区域内，实现与执行单元之间针对电力辅助服务交易的管理；区块链节点模块配置地用于区块链交易平台与每个执行单元之间或者执行单元之间的辅助服务交易处理和保存。本发明能够改变目前中心化的电网调度中心对电力辅助服务交易的管理模式，充分发挥每个发电厂的能动性，利用区块链云平台智能化地最高收益方式来管理各电厂的辅助服务设施。</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
+        <v>[发明公布]一种基于区块链的保单销售佣金权益管理方法</v>
+      </c>
+      <c r="B27" t="str">
+        <v>CN107993047A</v>
+      </c>
+      <c r="C27" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D27" t="str">
+        <v>2017111760740</v>
+      </c>
+      <c r="E27" t="str">
+        <v>2017.11.22</v>
+      </c>
+      <c r="F27" t="str">
+        <v>焦文华</v>
+      </c>
+      <c r="G27" t="str">
+        <v>魏松杰;李帅;焦文华</v>
+      </c>
+      <c r="H27" t="str">
+        <v>100102北京市朝阳区望京南湖西园118楼1905</v>
+      </c>
+      <c r="I27" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q10/10(2012.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						G06Q20/10(2012.01)I;G06Q40/04(2012.01)I;G06Q40/08(2012.01)I;G06F17/30(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：北京慕达星云知识产权代理事务所(特殊普通合伙)11465代理人：李冉</v>
+      </c>
+      <c r="J27" t="str">
+        <v>本发明涉及一种基于区块链的保单销售佣金权益管理方法，其主要利用区块链当中的智能合约来实现实际保险业务中保险销售人员及保险中介公司从所售卖保单中获取权益而涉及的保单销售佣金权益的一系列规范管理。区块链是一种分布式去中心化的账本技术，其可以实现不依赖于任何可信第三方的信任，且可以保证存储在区块链中的数据无法被非法窃取、伪造或者篡改。另一方面，得益于程序没有二义性以及区块链的安全特性，智能合约技术可以方便地在系统内各角色之间完成既定的业务逻辑，且这些业务的处理具备事务性。</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>[发明公布]基于区块链的去中心化数字签名公平交换方法及系统</v>
+      </c>
+      <c r="B28" t="str">
+        <v>CN107993059A</v>
+      </c>
+      <c r="C28" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D28" t="str">
+        <v>2017113757263</v>
+      </c>
+      <c r="E28" t="str">
+        <v>2017.12.19</v>
+      </c>
+      <c r="F28" t="str">
+        <v>北京航空航天大学</v>
+      </c>
+      <c r="G28" t="str" xml:space="preserve">
+        <v xml:space="preserve">伍前红;韩天煦;张文涛;牛俊翔;刘建伟_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="H28" t="str">
+        <v>100191北京市海淀区学院路37号</v>
+      </c>
+      <c r="I28" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q20/06(2012.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						G06Q20/38(2012.01)I;H04L29/06(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：北京清亦华知识产权代理事务所(普通合伙)11201代理人：张润</v>
+      </c>
+      <c r="J28" t="str">
+        <v>本发明公开了一种基于区块链的去中心化数字签名公平交换方法及系统，该方法包括：待交易的两个签名提供者之间分别提供自己的签名合同及公私钥对；两个签名提供者对彼此的公私钥对是否通过对方的签名合同生成，并在验证不通过时结束交易；两个签名提供者通过自定义交易单以及对所述自定义交易单的数字签名，以实现对所述第一合同文本和所述第二合同文本的数字签名，并在交易完成后赎回各自的保证金。本发明能去除第三方所带来的高额费用以及低通信效率等问题，并保证交换过程的公平性。</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
+        <v>[发明公布]一种资源交易方法及电子钱包系统</v>
+      </c>
+      <c r="B29" t="str">
+        <v>CN107993066A</v>
+      </c>
+      <c r="C29" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D29" t="str">
+        <v>2017113897945</v>
+      </c>
+      <c r="E29" t="str">
+        <v>2017.12.20</v>
+      </c>
+      <c r="F29" t="str">
+        <v>国民认证科技（北京）有限公司</v>
+      </c>
+      <c r="G29" t="str" xml:space="preserve">
+        <v xml:space="preserve">张超;宁晓魁;胡永亮;杨爱蓉;姚铸_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="H29" t="str">
+        <v>100080北京市海淀区上地信息路7号数字传媒大厦3层303号</v>
+      </c>
+      <c r="I29" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q20/36(2012.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						G06Q20/38(2012.01)I;G06Q20/40(2012.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：北京维澳专利代理有限公司11252代理人：赵景平;张春雨</v>
+      </c>
+      <c r="J29" t="str">
+        <v>本发明实施例提供一种资源交易方法及电子钱包系统，涉及区块链和生物认证技术领域，该资源交易方法包括：针对目标资源的本次交易发起后，第二终端向第一终端发送资源请求；第一终端根据资源请求生成针对目标资源的交易订单，利用与第一公钥配对使用的第一私钥对交易订单进行签名，并将已签名的交易订单以广播方式发送给区块链集群；区块链集群利用第一公钥对所接收的交易订单进行签名验证，在签名验证通过后，生成并存储与交易订单相对应的交易流水记录；在交易流水记录成功存储后，资源管理服务器完成发送方电子钱包和接收方电子钱包中针对目标资源的资源交易。应用本发明实施例提供的方案提高电子交易过程中用户的电子钱包的安全性。</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str">
+        <v>[发明公布]一种基于区块链网络的在线交易方法及系统</v>
+      </c>
+      <c r="B30" t="str">
+        <v>CN107993069A</v>
+      </c>
+      <c r="C30" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D30" t="str">
+        <v>201711327623X</v>
+      </c>
+      <c r="E30" t="str">
+        <v>2017.12.13</v>
+      </c>
+      <c r="F30" t="str">
+        <v>清华大学</v>
+      </c>
+      <c r="G30" t="str">
+        <v>柴跃廷;于潇;黄亚东</v>
+      </c>
+      <c r="H30" t="str">
+        <v>100000北京市海淀区双清路30号</v>
+      </c>
+      <c r="I30" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q20/38(2012.01)I;G06F17/30(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：北京高沃律师事务所11569代理人：王戈</v>
+      </c>
+      <c r="J30" t="str">
+        <v>本发明公开了一种基于区块链网络的在线交易方法及系统，该方法包括：获取需方用户的需求信息；在区块链网络中搜索，确定供方用户及供方用户门户系统；判断供方用户门户系统是否为需方用户区块链中的成员，若否时，根据供方门户系统的供方用户信息验证是否符合入链要求，若符合，建立需方门户系统与供方门户系统的门户子链，更新需方用户区块链，确定需方用户与供方用户的在线交易关系，并生成交易订单；根据交易订单中的信息，生成需方门户系统与供方门户系统的数据子链，依据共识机制将数据子链写入需方门户系统和供方用户门户系统构成的共处区块链；本发明实现了网络在线交易的真实、有效和安全。</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
+        <v>[发明公布]账户信息管理方法、系统以及可读存储介质</v>
+      </c>
+      <c r="B31" t="str">
+        <v>CN107993149A</v>
+      </c>
+      <c r="C31" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D31" t="str">
+        <v>2017113633114</v>
+      </c>
+      <c r="E31" t="str">
+        <v>2017.12.18</v>
+      </c>
+      <c r="F31" t="str">
+        <v>深圳前海微众银行股份有限公司</v>
+      </c>
+      <c r="G31" t="str" xml:space="preserve">
+        <v xml:space="preserve">张俊麒;李斌;张开翔;苏小康;肖克;范瑞彬;姚辉亚_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="H31" t="str">
+        <v>518052广东省深圳市前海深港合作区前湾一路1号A栋201室（入驻深圳市前海商务秘书有限公司）</v>
+      </c>
+      <c r="I31" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q40/04(2012.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						G06Q20/28(2012.01)I;H04L9/32(2006.01)I;H04L29/06(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：深圳市世纪恒程知识产权代理事务所44287代理人：胡海国;赵爱蓉</v>
+      </c>
+      <c r="J31" t="str">
+        <v>本发明公开了一种账户信息管理方法、系统以及可读存储介质，该方法包括步骤：当通过发卡行服务器接收到注册虚拟账户的注册请求后，将所获取的虚拟账户对应的账户信息写入发卡行区块链节点中；通过智能合约从发卡行区块链节点获取账户信息，根据账户信息创建虚拟账户；基于对等网络将账户信息同步到收单行区块链节点和清算行区块链节点中；当智能合约接收到交易请求后，由智能合约根据交易请求修改账户信息，并将修改后的账户信息同步到联盟链的各个区块链节点中，其中，联盟链包括收单行区块链节点、清算行区块链节点和发卡行区块链节点。本发明实现了发卡行服务器、收单行服务器和清算行服务器中账户信息的一致性。</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str">
+        <v>[发明公布]一种基于区块链的端对端自行车共享系统及方法</v>
+      </c>
+      <c r="B32" t="str">
+        <v>CN107993359A</v>
+      </c>
+      <c r="C32" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D32" t="str">
+        <v>2017111820898</v>
+      </c>
+      <c r="E32" t="str">
+        <v>2017.11.23</v>
+      </c>
+      <c r="F32" t="str">
+        <v>浙江大学</v>
+      </c>
+      <c r="G32" t="str" xml:space="preserve">
+        <v xml:space="preserve">阿里别克·卡日别可夫;孙羽羿;贺诗波;陈积明_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+				</v>
+      </c>
+      <c r="H32" t="str">
+        <v>310058浙江省杭州市西湖区余杭塘路866号</v>
+      </c>
+      <c r="I32" t="str" xml:space="preserve">
+        <v xml:space="preserve">G07F17/00(2006.01)I;_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						G06Q20/40(2012.01)I;G06Q20/38(2012.01)I;G06Q20/22(2012.01)I;H04L29/08(2006.01)I_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+						专利代理机构：杭州求是专利事务所有限公司33200代理人：刘静;邱启旺</v>
+      </c>
+      <c r="J32" t="str">
+        <v>本发明公开了一种基于区块链的端对端自行车共享系统及方法，该系统包括系统管理员、云端服务器、自行车所有方、自行车使用方和区块链网络；区块链网络中含有账户、自行车智能合约和节点；自行车使用方不再需要下载多个不同的应用软件，注册之后将自行车押金缴纳给自行车智能合约，区块链网络不含第三方，用户要退押金时只需向自行车智能合约提出申请，有效避免押金难退现象；支付过程不再依赖于第三方支付软件，有效降低了使用的手续费。交易信息由区块链网络中的节点共同保存，每个节点完全冗余的储存网络中所有交易数据，一旦有节点被篡改数据其他节点将提出异议，整个数据库安全性较高，能够保护自行车使用方及所有方隐私安全。</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str">
+        <v>[发明公布]一种基于区块链的端对端自行车共享系统及方法</v>
+      </c>
+      <c r="B33" t="str">
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D33" t="str">
+        <v>2017111820898</v>
+      </c>
+      <c r="E33" t="str">
+        <v>2017.11.23</v>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str" xml:space="preserve">
+        <v xml:space="preserve">阿里别克·卡日别可夫;孙羽羿;贺诗波;陈积明_x000d_
+				</v>
+      </c>
+      <c r="H33" t="str">
+        <v>310058浙江省杭州市西湖区余杭塘路866号</v>
+      </c>
+      <c r="I33" t="str" xml:space="preserve">
+        <v xml:space="preserve">G07F17/00(2006.01)I;_x000d_
+						G06Q20/40(2012.01)I;G06Q20/38(2012.01)I;G06Q20/22(2012.01)I;H04L29/08(2006.01)I_x000d_
+						专利代理机构：杭州求是专利事务所有限公司33200代理人：刘静;邱启旺</v>
+      </c>
+      <c r="J33" t="str">
+        <v>本发明公开了一种基于区块链的端对端自行车共享系统及方法，该系统包括系统管理员、云端服务器、自行车所有方、自行车使用方和区块链网络；区块链网络中含有账户、自行车智能合约和节点；自行车使用方不再需要下载多个不同的应用软件，注册之后将自行车押金缴纳给自行车智能合约，区块链网络不含第三方，用户要退押金时只需向自行车智能合约提出申请，有效避免押金难退现象；支付过程不再依赖于第三方支付软件，有效降低了使用的手续费。交易信息由区块链网络中的节点共同保存，每个节点完全冗余的储存网络中所有交易数据，一旦有节点被篡改数据其他节点将提出异议，整个数据库安全性较高，能够保护自行车使用方及所有方隐私安全。</v>
+      </c>
+      <c r="K33" t="str">
+        <v/>
+      </c>
+      <c r="L33" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/app/public/区块链.xlsx
+++ b/app/public/区块链.xlsx
@@ -377,7 +377,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="发明公布"/>
-  <dimension ref="A1:J1232"/>
+  <dimension ref="A1:J1241"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -41952,6 +41952,311 @@
         <v>本申请提供了一种操作处理方法及装置，包括：接收用户的操作请求；所述操作请求中包括多个操作的信息；根据所述多个操作的信息将所述多个操作按照操作顺序生成多操作事务；根据预先存储的数据访问记录查找与所述操作相关联的数据对象；所述数据访问记录存储于区块链的区块中；执行所述多操作事务中的操作，并根据执行结果更新所述数据对象中的数据。由于本申请可以同时接收包括多个操作的请求，根据这些操作按照操作顺序生成多操作事务，作为一个事务进行处理，从而实现同时处理多个操作的目的，提高了操作效率、节省了用户的操作步骤。</v>
       </c>
     </row>
+    <row r="1233" xml:space="preserve">
+      <c r="A1233" t="str">
+        <v>[发明公布]一种操作处理方法及装置</v>
+      </c>
+      <c r="B1233" t="str">
+        <v>CN105573828A</v>
+      </c>
+      <c r="C1233" t="str">
+        <v>2016.05.11</v>
+      </c>
+      <c r="D1233" t="str">
+        <v>2015109523112</v>
+      </c>
+      <c r="E1233" t="str">
+        <v>2015.12.17</v>
+      </c>
+      <c r="F1233" t="str">
+        <v>布比（北京）网络技术有限公司</v>
+      </c>
+      <c r="G1233" t="str" xml:space="preserve">
+        <v xml:space="preserve">蒋海;翟海滨;王璟;赵正涌;胡楠;乔肖瑞_x000d_
+				</v>
+      </c>
+      <c r="H1233" t="str">
+        <v>100094北京市海淀区东北旺村南1号楼7层7590室</v>
+      </c>
+      <c r="I1233" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F9/46(2006.01)I_x000d_
+						专利代理机构：北京新知远方知识产权代理事务所(普通合伙)11397代理人：申楠</v>
+      </c>
+      <c r="J1233" t="str">
+        <v>本申请提供了一种操作处理方法及装置，包括：接收用户的操作请求；所述操作请求中包括多个操作的信息；根据所述多个操作的信息将所述多个操作按照操作顺序生成多操作事务；根据预先存储的数据访问记录查找与所述操作相关联的数据对象；所述数据访问记录存储于区块链的区块中；执行所述多操作事务中的操作，并根据执行结果更新所述数据对象中的数据。由于本申请可以同时接收包括多个操作的请求，根据这些操作按照操作顺序生成多操作事务，作为一个事务进行处理，从而实现同时处理多个操作的目的，提高了操作效率、节省了用户的操作步骤。</v>
+      </c>
+    </row>
+    <row r="1234" xml:space="preserve">
+      <c r="A1234" t="str">
+        <v>[发明公布]区块链系统权限管理方法和装置</v>
+      </c>
+      <c r="B1234" t="str">
+        <v>CN105488431A</v>
+      </c>
+      <c r="C1234" t="str">
+        <v>2016.04.13</v>
+      </c>
+      <c r="D1234" t="str">
+        <v>2015108602297</v>
+      </c>
+      <c r="E1234" t="str">
+        <v>2015.11.30</v>
+      </c>
+      <c r="F1234" t="str">
+        <v>布比（北京）网络技术有限公司</v>
+      </c>
+      <c r="G1234" t="str" xml:space="preserve">
+        <v xml:space="preserve">蒋海;王璟;翟海滨;赵正涌_x000d_
+				</v>
+      </c>
+      <c r="H1234" t="str">
+        <v>100085北京市海淀区东北旺村南1号楼7层7590室</v>
+      </c>
+      <c r="I1234" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F21/62(2013.01)I_x000d_
+						专利代理机构：北京献智知识产权代理事务所(特殊普通合伙)11434代理人：杨献智</v>
+      </c>
+      <c r="J1234" t="str">
+        <v>本发明公开了一种区块链系统权限管理方法和装置，能够实现在用户登陆系统成功后，根据用户注册信息生成以用户为根节点的权限树，权限树以用户角色、权限以及区块链为各层子节点；当用户对区块链进行操作时，通知控制模块遍历用户对应的权限树，根据控制模块的遍历结果，判断用户是否具有合法权限对区块链进行该操作，若有则允许进行操作，若无则禁止进行操作。采用本发明的权限树对权限管理进行灵活权限控制，由于权限树具有层数少、更新快的特点，可以降低权限资源消耗，并兼顾保证权限管理的效率。</v>
+      </c>
+    </row>
+    <row r="1235" xml:space="preserve">
+      <c r="A1235" t="str">
+        <v>[发明公布]一种区块链的分布式共享总账构建方法</v>
+      </c>
+      <c r="B1235" t="str">
+        <v>CN105488675A</v>
+      </c>
+      <c r="C1235" t="str">
+        <v>2016.04.13</v>
+      </c>
+      <c r="D1235" t="str">
+        <v>2015108315610</v>
+      </c>
+      <c r="E1235" t="str">
+        <v>2015.11.25</v>
+      </c>
+      <c r="F1235" t="str">
+        <v>布比（北京）网络技术有限公司</v>
+      </c>
+      <c r="G1235" t="str">
+        <v>蒋海;翟海滨;王璟</v>
+      </c>
+      <c r="H1235" t="str">
+        <v>100094北京市海淀区东北旺村南1号楼7层7590室</v>
+      </c>
+      <c r="I1235" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q20/38(2012.01)I;_x000d_
+						G06Q30/06(2012.01)I;G06Q20/36(2012.01)I_x000d_
+						专利代理机构：北京工信联合知识产权代理事务所(普通合伙)11266代理人：郭一斐</v>
+      </c>
+      <c r="J1235" t="str">
+        <v>本发明涉及互联网上的数字资产交易，提供一种区块链的分布式共享总账构建方法，所述方法包括如下步骤：生成一条或多条交易副链，并根据所述交易副链的区块信息构造系统唯一的交易主链；所述交易副链和交易主链分别进行各自的区块链验证和交易验证，若交易验证在所述交易副链和交易主链上均验证通过，则证明交易真实存在，否则，交易不存在。本发明的一种区块链的分布式共享总账构建方法，支持多种业务的资产交易，包括非货币资产在区块链的交易，例如欠条、智能财产、优惠券、债券等，同时支持不同业务资产间的转移。另外，对关键功能的更新可在交易副链上进行，这样既可以提升更新速度，又可以规避交易主链被破坏的风险。</v>
+      </c>
+    </row>
+    <row r="1236" xml:space="preserve">
+      <c r="A1236" t="str">
+        <v>[发明公布]基于衍生链的资产数据处理方法及装置</v>
+      </c>
+      <c r="B1236" t="str">
+        <v>CN105488722A</v>
+      </c>
+      <c r="C1236" t="str">
+        <v>2016.04.13</v>
+      </c>
+      <c r="D1236" t="str">
+        <v>2015108597246</v>
+      </c>
+      <c r="E1236" t="str">
+        <v>2015.11.30</v>
+      </c>
+      <c r="F1236" t="str">
+        <v>布比（北京）网络技术有限公司</v>
+      </c>
+      <c r="G1236" t="str" xml:space="preserve">
+        <v xml:space="preserve">蒋海;王璟;翟海滨;赵正涌_x000d_
+				</v>
+      </c>
+      <c r="H1236" t="str">
+        <v>100085北京市海淀区东北旺村南1号楼7层7590室</v>
+      </c>
+      <c r="I1236" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q40/04(2012.01)I_x000d_
+						专利代理机构：北京献智知识产权代理事务所(特殊普通合伙)11434代理人：杨献智</v>
+      </c>
+      <c r="J1236" t="str">
+        <v>本发明提供一种基于衍生链的资产数据处理方法及装置，该方法包括：为区块链资产管理系统构建唯一主链和至少一条交易衍生链；主链和交易衍生链分别进行区块链验证；主链和交易衍生链分别进行各自的验证池更新；主链与每条交易衍生链之间以及各条交易衍生链之间通过转移网关进行资产数据处理。本发明提供的上述方案，设置了独立隔离的主链和交易衍生链，因而关键的功能更新可以首先在影响较低的衍生链进行，既可以提升更新速度，又能够规避主链破坏风险，其可扩展性明显提高，更新周期短，便于适应新需求和采纳创新的技术。</v>
+      </c>
+    </row>
+    <row r="1237" xml:space="preserve">
+      <c r="A1237" t="str">
+        <v>[发明公布]智行包</v>
+      </c>
+      <c r="B1237" t="str">
+        <v>CN105430767A</v>
+      </c>
+      <c r="C1237" t="str">
+        <v>2016.03.23</v>
+      </c>
+      <c r="D1237" t="str">
+        <v>2016100267740</v>
+      </c>
+      <c r="E1237" t="str">
+        <v>2016.01.17</v>
+      </c>
+      <c r="F1237" t="str">
+        <v>罗轶</v>
+      </c>
+      <c r="G1237" t="str">
+        <v>罗轶</v>
+      </c>
+      <c r="H1237" t="str">
+        <v>610045四川省成都市成都武侯区晋阳路422号3-89-1-1A</v>
+      </c>
+      <c r="I1237" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04W84/18(2009.01)I;_x000d_
+						H04W4/04(2009.01)I;H04W4/02(2009.01)I;G06K19/077(2006.01)I;G01C21/16(2006.01)I;H04M1/725(2006.01)I;A45C15/00(2006.01)I;B62K5/027(2013.01)I_x000d_
+						</v>
+      </c>
+      <c r="J1237" t="str">
+        <v>本发明公开了一种智行包，包括随行包、电源、智能传感器、网络层、微处理器、人机交互装置和应用层。智行包将导航定位、区块链、电子传感、数据网络、人工智能、分布式计算、自动控制、机器识别、移动计算、人机交互等一系列的技术合理有效的集成，嵌入到一个随身终端中，帮助改善人们的出行体验。智行包用户作为无线自组网中对等网络系统的管理者、监督者、使用者，自部署，自维护，自学习，自生产，从而构建一个去中心化的、自生长的出行数据库。可望成为智能城市交通系统的物联网终端件。</v>
+      </c>
+    </row>
+    <row r="1238" xml:space="preserve">
+      <c r="A1238" t="str">
+        <v>[发明公布]一种基于对等网络的异构数据库同步方法</v>
+      </c>
+      <c r="B1238" t="str">
+        <v>CN105404701A</v>
+      </c>
+      <c r="C1238" t="str">
+        <v>2016.03.16</v>
+      </c>
+      <c r="D1238" t="str">
+        <v>2015110329255</v>
+      </c>
+      <c r="E1238" t="str">
+        <v>2015.12.31</v>
+      </c>
+      <c r="F1238" t="str">
+        <v>浙江图讯科技股份有限公司</v>
+      </c>
+      <c r="G1238" t="str">
+        <v>王斌;孙建祖;来亦子</v>
+      </c>
+      <c r="H1238" t="str">
+        <v>310023浙江省杭州市余杭区五常街道168号B座2层</v>
+      </c>
+      <c r="I1238" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I;H04L29/08(2006.01)I_x000d_
+						专利代理机构：杭州求是专利事务所有限公司33200代理人：邱启旺</v>
+      </c>
+      <c r="J1238" t="str">
+        <v>本发明公开了一种基于对等网络的异构数据库同步方法，该方法在异构数据库同步装置上实现，包括路由节点和全局代理服务；该方法步骤如下：数据库信息发生变更，反馈给全局代理服务；全局代理服务把变更的信息广播给各节点中的路由代理；通过全局代理服务器，更新各个节点的资源信息，将更新的信息记录时间戳，并更新到区块链中：更新各节点的代理同步状态，记录时间戳和待变更的信息，并把更新状态反馈给全局代理。本发明装置通过去中心化，每个节点自我管理，可以大大提升数据库同步的可靠性和可用性。本发明方法基于区块链技术，拥有完整的数据交换记录，解决了传统中心模式的数据交换的不可追溯。</v>
+      </c>
+    </row>
+    <row r="1239" xml:space="preserve">
+      <c r="A1239" t="str">
+        <v>[发明公布]主动推送信息的方法和嵌入式节点操作系统</v>
+      </c>
+      <c r="B1239" t="str">
+        <v>CN104935657A</v>
+      </c>
+      <c r="C1239" t="str">
+        <v>2015.09.23</v>
+      </c>
+      <c r="D1239" t="str">
+        <v>2015103335779</v>
+      </c>
+      <c r="E1239" t="str">
+        <v>2015.06.15</v>
+      </c>
+      <c r="F1239" t="str">
+        <v>清华大学深圳研究生院</v>
+      </c>
+      <c r="G1239" t="str" xml:space="preserve">
+        <v xml:space="preserve">张盛;王焱彤;张国勇;吴影_x000d_
+				</v>
+      </c>
+      <c r="H1239" t="str">
+        <v>518055广东省深圳市南山区西丽大学城清华校区</v>
+      </c>
+      <c r="I1239" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04L29/08(2006.01)I;H04W84/18(2009.01)I_x000d_
+						专利代理机构：深圳新创友知识产权代理有限公司44223代理人：江耀纯</v>
+      </c>
+      <c r="J1239" t="str">
+        <v>本发明申请公开了主动推送信息的方法和嵌入式节点操作系统，方法包括：当采集节点采集的数据发生变化时，所述采集节点根据路由表规划出推送路径，将本次采集数据、区块链中末端信息摘要和推送路径进行封装，将封装好的信息主动推送到网络通信可以到达的第一邻居节点，并将本次采集的数据写入所述采集节点的区块链的末端，最后将封装好的信息发送至云端。</v>
+      </c>
+    </row>
+    <row r="1240" xml:space="preserve">
+      <c r="A1240" t="str">
+        <v>[发明公布]耳纹学识别远程图像身体诊断系统</v>
+      </c>
+      <c r="B1240" t="str">
+        <v>CN104799828A</v>
+      </c>
+      <c r="C1240" t="str">
+        <v>2015.07.29</v>
+      </c>
+      <c r="D1240" t="str">
+        <v>2015102503993</v>
+      </c>
+      <c r="E1240" t="str">
+        <v>2015.05.15</v>
+      </c>
+      <c r="F1240" t="str">
+        <v>春泉健康管理(上海)有限公司</v>
+      </c>
+      <c r="G1240" t="str">
+        <v>戚顺英</v>
+      </c>
+      <c r="H1240" t="str">
+        <v>201914上海市崇明县富民支路58号A1-1806室（上海横泰经济开发区）</v>
+      </c>
+      <c r="I1240" t="str" xml:space="preserve">
+        <v xml:space="preserve">A61B5/00(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J1240" t="str">
+        <v>本发明公开了一种耳纹学识别远程图像身体诊断系统，其通过耳朵的图片用于远程的全身健康检查，了解全身的身体健康状况；其包括三个组件：用于检测识别特征的传感器、用于读取和存储信息的计算机和用于将特征转换成图形或区块链代码并执行具体比较分析特征的计算机软件，传感器与计算机连接。本发明在耳朵的201个穴位上创新发明了二十二个区块链耳纹识别系统，耳纹诊断是依照耳前22个区和耳背12个区解剖路线顺序进行的，这34个区块链路线是根据耳纹相关群点和耳纹生理功能设计出来的，是多年临床实践研究和经验总结的。耳纹识别能够对身体进行全方位的诊断，这是其它生物识别无法做到的。</v>
+      </c>
+    </row>
+    <row r="1241" xml:space="preserve">
+      <c r="A1241" t="str">
+        <v>[发明公布]对多个区块进行适应性确定群组以成为多个多区块单元</v>
+      </c>
+      <c r="B1241" t="str">
+        <v>CN1930635</v>
+      </c>
+      <c r="C1241" t="str">
+        <v>2007.03.14</v>
+      </c>
+      <c r="D1241" t="str">
+        <v>2004800416810</v>
+      </c>
+      <c r="E1241" t="str">
+        <v>2004.12.15</v>
+      </c>
+      <c r="F1241" t="str">
+        <v>桑迪士克股份有限公司</v>
+      </c>
+      <c r="G1241" t="str" xml:space="preserve">
+        <v xml:space="preserve">卡洛斯·J·冈萨雷斯;艾伦·D·布莱斯;瑟吉·A·戈罗别兹;艾伦·D·贝内特_x000d_
+				</v>
+      </c>
+      <c r="H1241" t="str">
+        <v>美国加利福尼亚州</v>
+      </c>
+      <c r="I1241" t="str" xml:space="preserve">
+        <v xml:space="preserve">G11C29/00(2006.01);_x000d_
+						G06F12/02(2006.01);G06F3/06(2006.01)_x000d_
+						专利代理机构：北京律盟知识产权代理有限责任公司代理人：刘国伟优先权：10/750,157 2003.12.30 USPCT进入国家阶段日：2006.08.14PCT申请数据：PCT/US2004/042400 2004.12.15PCT公布数据：WO2005/066974 EN 2005.07.21</v>
+      </c>
+      <c r="J1241" t="str">
+        <v>本发明揭示一种用于将一非易失性存储器的物理区块链接到复合逻辑结构或“元区块”中的技术。在确定良好物理区块初始链接到元区块中之后，将所述链接的一记录保存在所述非易失性存储器中，当需要时可在所述非易失性存储器中容易地存取所述记录。在一组实施例中，根据一算法确定性地形成所述初始链接，并且可根据所述存储器中任何不良区块的图案来将其优化。当出现额外的不良区块时，通过以良好区块取代链接中的所述不良区块而更新所述链接，所述良好区块优选是在与其所取代的区块相同的存储器子阵列中。</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -41959,7 +42264,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="发明授权"/>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -42559,6 +42864,47 @@
         <v/>
       </c>
     </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>[发明授权]对多个区块进行适应性确定群组以成为多个多区块单元</v>
+      </c>
+      <c r="B16" t="str">
+        <v>CN1930635B</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v>2004800416810</v>
+      </c>
+      <c r="E16" t="str">
+        <v>2004.12.15</v>
+      </c>
+      <c r="F16" t="str">
+        <v>桑迪士克股份有限公司</v>
+      </c>
+      <c r="G16" t="str" xml:space="preserve">
+        <v xml:space="preserve">卡洛斯·J·冈萨雷斯;艾伦·D·布莱斯;瑟吉·A·戈罗别兹;艾伦·D·贝内特_x000d_
+				</v>
+      </c>
+      <c r="H16" t="str">
+        <v>美国加利福尼亚州</v>
+      </c>
+      <c r="I16" t="str" xml:space="preserve">
+        <v xml:space="preserve">G11C29/00(2006.01)I;_x000d_
+						G06F12/02(2006.01)I;G06F3/06(2006.01)I_x000d_
+						专利代理机构：北京律盟知识产权代理有限责任公司 11287代理人：刘国伟优先权：10/750,157 20031230 USPCT进入国家阶段日：2006.08.14PCT申请数据：PCT/US2004/042400 20041215PCT公布数据：WO2005/066974 EN 20050721对比文件：CN 1248334 A,2000.03.22,说明书第8-18页、附图1-12.;US 2002/0099904 A1,2002.07.25,说明书第62-68段、图8,14-16.;US 5572466 A,1996.11.05,全文.;同上.;US 6034897 A,2000.03.07,说明书第4栏第13行至第10栏第25行，第13栏第43-65行、图1、2、5.;同上.;US 2003/0202377 A1,2003.10.30,全文.</v>
+      </c>
+      <c r="J16" t="str">
+        <v>本发明揭示一种用于将一非易失性存储器的物理区块链接到复合逻辑结构或“元区块”中的技术。在确定良好物理区块初始链接到元区块中之后，将所述链接的一记录保存在所述非易失性存储器中，当需要时可在所述非易失性存储器中容易地存取所述记录。在一组实施例中，根据一算法确定性地形成所述初始链接，并且可根据所述存储器中任何不良区块的图案来将其优化。当出现额外的不良区块时，通过以良好区块取代链接中的所述不良区块而更新所述链接，所述良好区块优选是在与其所取代的区块相同的存储器子阵列中。</v>
+      </c>
+      <c r="K16" t="str">
+        <v>2012.10.10</v>
+      </c>
+      <c r="L16" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>